--- a/s60_signal/position-01766-601766.xlsx
+++ b/s60_signal/position-01766-601766.xlsx
@@ -1021,7 +1021,7 @@
     <t>2021-06-17</t>
   </si>
   <si>
-    <t>2021-07-09</t>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2021-06-23</t>
@@ -44857,10 +44857,10 @@
         <v>0.3814658379638036</v>
       </c>
       <c r="D862" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E862">
-        <v>0.3000031473416627</v>
+        <v>0.3229019914353897</v>
       </c>
       <c r="F862">
         <v>1</v>
@@ -44869,10 +44869,10 @@
         <v>0.0119185341620362</v>
       </c>
       <c r="H862">
-        <v>0.01211999685265834</v>
+        <v>0.01179709800856461</v>
       </c>
       <c r="I862">
-        <v>-0.08146269062214095</v>
+        <v>-0.05856384652841395</v>
       </c>
       <c r="J862">
         <v>1.571807673579345</v>
@@ -44884,10 +44884,10 @@
         <v>6.15</v>
       </c>
       <c r="M862">
-        <v>3.76</v>
+        <v>3.65</v>
       </c>
       <c r="N862">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="O862">
         <v>1</v>
@@ -45210,7 +45210,7 @@
         <v>335</v>
       </c>
       <c r="E869">
-        <v>0.660466591928933</v>
+        <v>0.6328131378021666</v>
       </c>
       <c r="F869">
         <v>-1</v>
@@ -45219,10 +45219,10 @@
         <v>0.01111422649981753</v>
       </c>
       <c r="H869">
-        <v>0.01123953340807107</v>
+        <v>0.01130718686219783</v>
       </c>
       <c r="I869">
-        <v>0.06530690825353247</v>
+        <v>0.09296036238029881</v>
       </c>
       <c r="J869">
         <v>1.588448470892212</v>
@@ -45234,10 +45234,10 @@
         <v>5.92</v>
       </c>
       <c r="M869">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N869">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O869">
         <v>1</v>
@@ -45310,7 +45310,7 @@
         <v>335</v>
       </c>
       <c r="E871">
-        <v>0.6458500635734099</v>
+        <v>0.6180649290110081</v>
       </c>
       <c r="F871">
         <v>-1</v>
@@ -45319,10 +45319,10 @@
         <v>0.01112857966730179</v>
       </c>
       <c r="H871">
-        <v>0.01125414993642659</v>
+        <v>0.01132193507098899</v>
       </c>
       <c r="I871">
-        <v>0.06557026912480346</v>
+        <v>0.0933554036872053</v>
       </c>
       <c r="J871">
         <v>1.592837818746724</v>
@@ -45334,10 +45334,10 @@
         <v>5.92</v>
       </c>
       <c r="M871">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N871">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O871">
         <v>1</v>
@@ -45410,7 +45410,7 @@
         <v>335</v>
       </c>
       <c r="E873">
-        <v>0.6262791936422811</v>
+        <v>0.5983177449363559</v>
       </c>
       <c r="F873">
         <v>-1</v>
@@ -45419,10 +45419,10 @@
         <v>0.01114779790894587</v>
       </c>
       <c r="H873">
-        <v>0.01127372080635772</v>
+        <v>0.01134168225506364</v>
       </c>
       <c r="I873">
-        <v>0.0659228974118502</v>
+        <v>0.09388434611777541</v>
       </c>
       <c r="J873">
         <v>1.59871495686418</v>
@@ -45434,10 +45434,10 @@
         <v>5.92</v>
       </c>
       <c r="M873">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N873">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O873">
         <v>1</v>
@@ -45510,7 +45510,7 @@
         <v>335</v>
       </c>
       <c r="E875">
-        <v>0.6083742292819299</v>
+        <v>0.5802514745907761</v>
       </c>
       <c r="F875">
         <v>-1</v>
@@ -45519,10 +45519,10 @@
         <v>0.01116538026133576</v>
       </c>
       <c r="H875">
-        <v>0.01129162577071807</v>
+        <v>0.01135974852540922</v>
       </c>
       <c r="I875">
-        <v>0.06624550938230733</v>
+        <v>0.09436826407346111</v>
       </c>
       <c r="J875">
         <v>1.60409182303846</v>
@@ -45534,10 +45534,10 @@
         <v>5.92</v>
       </c>
       <c r="M875">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N875">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O875">
         <v>1</v>
@@ -45557,10 +45557,10 @@
         <v>0.2531682602441148</v>
       </c>
       <c r="D876" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E876">
-        <v>0.5963185043200001</v>
+        <v>0.1685593074980574</v>
       </c>
       <c r="F876">
         <v>1</v>
@@ -45569,10 +45569,10 @@
         <v>0.01204683173975589</v>
       </c>
       <c r="H876">
-        <v>0.01184368149568</v>
+        <v>0.01225144069250194</v>
       </c>
       <c r="I876">
-        <v>0.3431502440758853</v>
+        <v>-0.0846089527460574</v>
       </c>
       <c r="J876">
         <v>1.606766141622857</v>
@@ -45584,10 +45584,10 @@
         <v>6.15</v>
       </c>
       <c r="M876">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="N876">
-        <v>6.22</v>
+        <v>6.21</v>
       </c>
       <c r="O876">
         <v>1</v>
@@ -45610,7 +45610,7 @@
         <v>335</v>
       </c>
       <c r="E877">
-        <v>0.5994687483958856</v>
+        <v>0.5712657641472001</v>
       </c>
       <c r="F877">
         <v>-1</v>
@@ -45619,10 +45619,10 @@
         <v>0.01117412528310674</v>
       </c>
       <c r="H877">
-        <v>0.01130053125160412</v>
+        <v>0.0113687342358528</v>
       </c>
       <c r="I877">
-        <v>0.06640596849737168</v>
+        <v>0.09460895274605718</v>
       </c>
       <c r="J877">
         <v>1.606766141622857</v>
@@ -45634,10 +45634,10 @@
         <v>5.92</v>
       </c>
       <c r="M877">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N877">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O877">
         <v>1</v>
@@ -45657,10 +45657,10 @@
         <v>0.264044594240807</v>
       </c>
       <c r="D878" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E878">
-        <v>0.606691029929924</v>
+        <v>0.1797023635818622</v>
       </c>
       <c r="F878">
         <v>1</v>
@@ -45669,10 +45669,10 @@
         <v>0.01203595540575919</v>
       </c>
       <c r="H878">
-        <v>0.01183330897007008</v>
+        <v>0.01224029763641814</v>
       </c>
       <c r="I878">
-        <v>0.342646435689117</v>
+        <v>-0.08434223065894475</v>
       </c>
       <c r="J878">
         <v>1.603802562877164</v>
@@ -45684,10 +45684,10 @@
         <v>6.15</v>
       </c>
       <c r="M878">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="N878">
-        <v>6.22</v>
+        <v>6.21</v>
       </c>
       <c r="O878">
         <v>1</v>
@@ -45710,7 +45710,7 @@
         <v>335</v>
       </c>
       <c r="E879">
-        <v>0.6093374656190429</v>
+        <v>0.5812233887327274</v>
       </c>
       <c r="F879">
         <v>-1</v>
@@ -45719,10 +45719,10 @@
         <v>0.01116443438060833</v>
       </c>
       <c r="H879">
-        <v>0.01129066253438096</v>
+        <v>0.01135877661126727</v>
       </c>
       <c r="I879">
-        <v>0.06622815377262903</v>
+        <v>0.09434223065894454</v>
       </c>
       <c r="J879">
         <v>1.603802562877164</v>
@@ -45734,10 +45734,10 @@
         <v>5.92</v>
       </c>
       <c r="M879">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N879">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O879">
         <v>1</v>
@@ -45810,7 +45810,7 @@
         <v>335</v>
       </c>
       <c r="E881">
-        <v>0.5735983367876871</v>
+        <v>0.5451622857677565</v>
       </c>
       <c r="F881">
         <v>-1</v>
@@ -45819,10 +45819,10 @@
         <v>0.01119952956117245</v>
       </c>
       <c r="H881">
-        <v>0.01132640166321231</v>
+        <v>0.01139483771423224</v>
       </c>
       <c r="I881">
-        <v>0.06687210203986105</v>
+        <v>0.09530815305979168</v>
       </c>
       <c r="J881">
         <v>1.614535033997692</v>
@@ -45834,10 +45834,10 @@
         <v>5.92</v>
       </c>
       <c r="M881">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N881">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O881">
         <v>1</v>
@@ -45910,7 +45910,7 @@
         <v>335</v>
       </c>
       <c r="E883">
-        <v>0.5147562125634995</v>
+        <v>0.4857900523163243</v>
       </c>
       <c r="F883">
         <v>-1</v>
@@ -45919,10 +45919,10 @@
         <v>0.01125731146694215</v>
       </c>
       <c r="H883">
-        <v>0.0113852437874365</v>
+        <v>0.01145420994768368</v>
       </c>
       <c r="I883">
-        <v>0.06793232049435183</v>
+        <v>0.09689848074152696</v>
       </c>
       <c r="J883">
         <v>1.632205341572523</v>
@@ -45934,10 +45934,10 @@
         <v>5.92</v>
       </c>
       <c r="M883">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N883">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O883">
         <v>1</v>
@@ -46010,7 +46010,7 @@
         <v>335</v>
       </c>
       <c r="E885">
-        <v>0.3804656588586015</v>
+        <v>0.3502896738032737</v>
       </c>
       <c r="F885">
         <v>-1</v>
@@ -46019,10 +46019,10 @@
         <v>0.01138918237103074</v>
       </c>
       <c r="H885">
-        <v>0.0115195343411414</v>
+        <v>0.01158971032619673</v>
       </c>
       <c r="I885">
-        <v>0.07035197011065542</v>
+        <v>0.1005279551659832</v>
       </c>
       <c r="J885">
         <v>1.672532835177597</v>
@@ -46034,10 +46034,10 @@
         <v>5.92</v>
       </c>
       <c r="M885">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N885">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O885">
         <v>1</v>
@@ -46060,7 +46060,7 @@
         <v>335</v>
       </c>
       <c r="E886">
-        <v>0.2236728524416423</v>
+        <v>0.1920843195807569</v>
       </c>
       <c r="F886">
         <v>-1</v>
@@ -46069,10 +46069,10 @@
         <v>0.01154315008183659</v>
       </c>
       <c r="H886">
-        <v>0.01167632714755836</v>
+        <v>0.01174791568041924</v>
       </c>
       <c r="I886">
-        <v>0.07317706572177229</v>
+        <v>0.1047655985826577</v>
       </c>
       <c r="J886">
         <v>1.719617762029537</v>
@@ -46084,10 +46084,10 @@
         <v>5.92</v>
       </c>
       <c r="M886">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N886">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O886">
         <v>1</v>
@@ -46110,7 +46110,7 @@
         <v>335</v>
       </c>
       <c r="E887">
-        <v>0.2497432775533754</v>
+        <v>0.2183896133871892</v>
       </c>
       <c r="F887">
         <v>-1</v>
@@ -46119,10 +46119,10 @@
         <v>0.01151754939411425</v>
       </c>
       <c r="H887">
-        <v>0.01165025672244662</v>
+        <v>0.01172161038661281</v>
       </c>
       <c r="I887">
-        <v>0.07270732833237137</v>
+        <v>0.1040609924985576</v>
       </c>
       <c r="J887">
         <v>1.711788805539527</v>
@@ -46134,10 +46134,10 @@
         <v>5.92</v>
       </c>
       <c r="M887">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N887">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O887">
         <v>1</v>
@@ -46160,7 +46160,7 @@
         <v>335</v>
       </c>
       <c r="E888">
-        <v>0.4017858655291597</v>
+        <v>0.3718019544078004</v>
       </c>
       <c r="F888">
         <v>-1</v>
@@ -46169,10 +46169,10 @@
         <v>0.01136824631222812</v>
       </c>
       <c r="H888">
-        <v>0.01149821413447084</v>
+        <v>0.0115681980455922</v>
       </c>
       <c r="I888">
-        <v>0.06996782224271758</v>
+        <v>0.09995173336407692</v>
       </c>
       <c r="J888">
         <v>1.666130370711964</v>
@@ -46184,10 +46184,10 @@
         <v>5.92</v>
       </c>
       <c r="M888">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N888">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O888">
         <v>1</v>
@@ -46210,7 +46210,7 @@
         <v>335</v>
       </c>
       <c r="E889">
-        <v>0.4445012159904245</v>
+        <v>0.4149021278461937</v>
       </c>
       <c r="F889">
         <v>-1</v>
@@ -46219,10 +46219,10 @@
         <v>0.01132630060772112</v>
       </c>
       <c r="H889">
-        <v>0.01145549878400958</v>
+        <v>0.01152509787215381</v>
       </c>
       <c r="I889">
-        <v>0.06919817628846037</v>
+        <v>0.0987972644326911</v>
       </c>
       <c r="J889">
         <v>1.653302938141014</v>
@@ -46234,10 +46234,10 @@
         <v>5.92</v>
       </c>
       <c r="M889">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="N889">
-        <v>5.95</v>
+        <v>5.97</v>
       </c>
       <c r="O889">
         <v>1</v>

--- a/s60_signal/position-01766-601766.xlsx
+++ b/s60_signal/position-01766-601766.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="475">
   <si>
     <t>trade_time</t>
   </si>
@@ -1021,7 +1021,7 @@
     <t>2021-06-17</t>
   </si>
   <si>
-    <t>2021-07-12</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2021-06-23</t>
@@ -1433,6 +1433,9 @@
   </si>
   <si>
     <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
   </si>
   <si>
     <t>2021-06-28</t>
@@ -1793,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P890"/>
+  <dimension ref="A1:P891"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44907,10 +44910,10 @@
         <v>0.3806182450080593</v>
       </c>
       <c r="D863" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E863">
-        <v>0.2991347687276029</v>
+        <v>0.3220590175148264</v>
       </c>
       <c r="F863">
         <v>1</v>
@@ -44919,10 +44922,10 @@
         <v>0.01191938175499194</v>
       </c>
       <c r="H863">
-        <v>0.0121208652312724</v>
+        <v>0.01179794098248517</v>
       </c>
       <c r="I863">
-        <v>-0.08148347628045638</v>
+        <v>-0.05855922749323295</v>
       </c>
       <c r="J863">
         <v>1.572038625338404</v>
@@ -44934,10 +44937,10 @@
         <v>6.15</v>
       </c>
       <c r="M863">
-        <v>3.76</v>
+        <v>3.65</v>
       </c>
       <c r="N863">
-        <v>6.21</v>
+        <v>6.06</v>
       </c>
       <c r="O863">
         <v>1</v>
@@ -45210,7 +45213,7 @@
         <v>335</v>
       </c>
       <c r="E869">
-        <v>0.6328131378021666</v>
+        <v>0.5775062295486331</v>
       </c>
       <c r="F869">
         <v>-1</v>
@@ -45219,10 +45222,10 @@
         <v>0.01111422649981753</v>
       </c>
       <c r="H869">
-        <v>0.01130718686219783</v>
+        <v>0.01144249377045137</v>
       </c>
       <c r="I869">
-        <v>0.09296036238029881</v>
+        <v>0.1482672706338324</v>
       </c>
       <c r="J869">
         <v>1.588448470892212</v>
@@ -45234,10 +45237,10 @@
         <v>5.92</v>
       </c>
       <c r="M869">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N869">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O869">
         <v>1</v>
@@ -45310,7 +45313,7 @@
         <v>335</v>
       </c>
       <c r="E871">
-        <v>0.6180649290110081</v>
+        <v>0.5624946598862044</v>
       </c>
       <c r="F871">
         <v>-1</v>
@@ -45319,10 +45322,10 @@
         <v>0.01112857966730179</v>
       </c>
       <c r="H871">
-        <v>0.01132193507098899</v>
+        <v>0.01145750534011379</v>
       </c>
       <c r="I871">
-        <v>0.0933554036872053</v>
+        <v>0.148925672812009</v>
       </c>
       <c r="J871">
         <v>1.592837818746724</v>
@@ -45334,10 +45337,10 @@
         <v>5.92</v>
       </c>
       <c r="M871">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N871">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O871">
         <v>1</v>
@@ -45410,7 +45413,7 @@
         <v>335</v>
       </c>
       <c r="E873">
-        <v>0.5983177449363559</v>
+        <v>0.5423948475245046</v>
       </c>
       <c r="F873">
         <v>-1</v>
@@ -45419,10 +45422,10 @@
         <v>0.01114779790894587</v>
       </c>
       <c r="H873">
-        <v>0.01134168225506364</v>
+        <v>0.01147760515247549</v>
       </c>
       <c r="I873">
-        <v>0.09388434611777541</v>
+        <v>0.1498072435296267</v>
       </c>
       <c r="J873">
         <v>1.59871495686418</v>
@@ -45434,10 +45437,10 @@
         <v>5.92</v>
       </c>
       <c r="M873">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N873">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O873">
         <v>1</v>
@@ -45510,7 +45513,7 @@
         <v>335</v>
       </c>
       <c r="E875">
-        <v>0.5802514745907761</v>
+        <v>0.5240059652084685</v>
       </c>
       <c r="F875">
         <v>-1</v>
@@ -45519,10 +45522,10 @@
         <v>0.01116538026133576</v>
       </c>
       <c r="H875">
-        <v>0.01135974852540922</v>
+        <v>0.01149599403479153</v>
       </c>
       <c r="I875">
-        <v>0.09436826407346111</v>
+        <v>0.1506137734557687</v>
       </c>
       <c r="J875">
         <v>1.60409182303846</v>
@@ -45534,10 +45537,10 @@
         <v>5.92</v>
       </c>
       <c r="M875">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N875">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O875">
         <v>1</v>
@@ -45610,7 +45613,7 @@
         <v>335</v>
       </c>
       <c r="E877">
-        <v>0.5712657641472001</v>
+        <v>0.5148597956498282</v>
       </c>
       <c r="F877">
         <v>-1</v>
@@ -45619,10 +45622,10 @@
         <v>0.01117412528310674</v>
       </c>
       <c r="H877">
-        <v>0.0113687342358528</v>
+        <v>0.01150514020435017</v>
       </c>
       <c r="I877">
-        <v>0.09460895274605718</v>
+        <v>0.1510149212434291</v>
       </c>
       <c r="J877">
         <v>1.606766141622857</v>
@@ -45634,10 +45637,10 @@
         <v>5.92</v>
       </c>
       <c r="M877">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N877">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O877">
         <v>1</v>
@@ -45710,7 +45713,7 @@
         <v>335</v>
       </c>
       <c r="E879">
-        <v>0.5812233887327274</v>
+        <v>0.5249952349600981</v>
       </c>
       <c r="F879">
         <v>-1</v>
@@ -45719,10 +45722,10 @@
         <v>0.01116443438060833</v>
       </c>
       <c r="H879">
-        <v>0.01135877661126727</v>
+        <v>0.0114950047650399</v>
       </c>
       <c r="I879">
-        <v>0.09434223065894454</v>
+        <v>0.1505703844315738</v>
       </c>
       <c r="J879">
         <v>1.603802562877164</v>
@@ -45734,10 +45737,10 @@
         <v>5.92</v>
       </c>
       <c r="M879">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N879">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O879">
         <v>1</v>
@@ -45757,10 +45760,10 @@
         <v>0.2246564252284724</v>
       </c>
       <c r="D880" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E880">
-        <v>0.5691273810080792</v>
+        <v>0.1393482721686796</v>
       </c>
       <c r="F880">
         <v>1</v>
@@ -45769,10 +45772,10 @@
         <v>0.01207534357477153</v>
       </c>
       <c r="H880">
-        <v>0.01187087261899192</v>
+        <v>0.01228065172783132</v>
       </c>
       <c r="I880">
-        <v>0.3444709557796068</v>
+        <v>-0.08530815305979278</v>
       </c>
       <c r="J880">
         <v>1.614535033997692</v>
@@ -45784,10 +45787,10 @@
         <v>6.15</v>
       </c>
       <c r="M880">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="N880">
-        <v>6.22</v>
+        <v>6.21</v>
       </c>
       <c r="O880">
         <v>1</v>
@@ -45810,7 +45813,7 @@
         <v>335</v>
       </c>
       <c r="E881">
-        <v>0.5451622857677565</v>
+        <v>0.4882901837278943</v>
       </c>
       <c r="F881">
         <v>-1</v>
@@ -45819,10 +45822,10 @@
         <v>0.01119952956117245</v>
       </c>
       <c r="H881">
-        <v>0.01139483771423224</v>
+        <v>0.0115317098162721</v>
       </c>
       <c r="I881">
-        <v>0.09530815305979168</v>
+        <v>0.1521802550996538</v>
       </c>
       <c r="J881">
         <v>1.614535033997692</v>
@@ -45834,10 +45837,10 @@
         <v>5.92</v>
       </c>
       <c r="M881">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N881">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O881">
         <v>1</v>
@@ -45910,7 +45913,7 @@
         <v>335</v>
       </c>
       <c r="E883">
-        <v>0.4857900523163243</v>
+        <v>0.4278577318219723</v>
       </c>
       <c r="F883">
         <v>-1</v>
@@ -45919,10 +45922,10 @@
         <v>0.01125731146694215</v>
       </c>
       <c r="H883">
-        <v>0.01145420994768368</v>
+        <v>0.01159214226817803</v>
       </c>
       <c r="I883">
-        <v>0.09689848074152696</v>
+        <v>0.154830801235879</v>
       </c>
       <c r="J883">
         <v>1.632205341572523</v>
@@ -45934,10 +45937,10 @@
         <v>5.92</v>
       </c>
       <c r="M883">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N883">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O883">
         <v>1</v>
@@ -46010,7 +46013,7 @@
         <v>335</v>
       </c>
       <c r="E885">
-        <v>0.3502896738032737</v>
+        <v>0.2899377036926172</v>
       </c>
       <c r="F885">
         <v>-1</v>
@@ -46019,10 +46022,10 @@
         <v>0.01138918237103074</v>
       </c>
       <c r="H885">
-        <v>0.01158971032619673</v>
+        <v>0.01173006229630738</v>
       </c>
       <c r="I885">
-        <v>0.1005279551659832</v>
+        <v>0.1608799252766397</v>
       </c>
       <c r="J885">
         <v>1.672532835177597</v>
@@ -46034,10 +46037,10 @@
         <v>5.92</v>
       </c>
       <c r="M885">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N885">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O885">
         <v>1</v>
@@ -46060,7 +46063,7 @@
         <v>335</v>
       </c>
       <c r="E886">
-        <v>0.1920843195807569</v>
+        <v>0.1289072538589844</v>
       </c>
       <c r="F886">
         <v>-1</v>
@@ -46069,10 +46072,10 @@
         <v>0.01154315008183659</v>
       </c>
       <c r="H886">
-        <v>0.01174791568041924</v>
+        <v>0.01189109274614102</v>
       </c>
       <c r="I886">
-        <v>0.1047655985826577</v>
+        <v>0.1679426643044302</v>
       </c>
       <c r="J886">
         <v>1.719617762029537</v>
@@ -46084,10 +46087,10 @@
         <v>5.92</v>
       </c>
       <c r="M886">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N886">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O886">
         <v>1</v>
@@ -46110,7 +46113,7 @@
         <v>335</v>
       </c>
       <c r="E887">
-        <v>0.2183896133871892</v>
+        <v>0.1556822850548176</v>
       </c>
       <c r="F887">
         <v>-1</v>
@@ -46119,10 +46122,10 @@
         <v>0.01151754939411425</v>
       </c>
       <c r="H887">
-        <v>0.01172161038661281</v>
+        <v>0.01186431771494518</v>
       </c>
       <c r="I887">
-        <v>0.1040609924985576</v>
+        <v>0.1667683208309292</v>
       </c>
       <c r="J887">
         <v>1.711788805539527</v>
@@ -46134,10 +46137,10 @@
         <v>5.92</v>
       </c>
       <c r="M887">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N887">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O887">
         <v>1</v>
@@ -46160,7 +46163,7 @@
         <v>335</v>
       </c>
       <c r="E888">
-        <v>0.3718019544078004</v>
+        <v>0.3118341321650826</v>
       </c>
       <c r="F888">
         <v>-1</v>
@@ -46169,10 +46172,10 @@
         <v>0.01136824631222812</v>
       </c>
       <c r="H888">
-        <v>0.0115681980455922</v>
+        <v>0.01170816586783492</v>
       </c>
       <c r="I888">
-        <v>0.09995173336407692</v>
+        <v>0.1599195556067947</v>
       </c>
       <c r="J888">
         <v>1.666130370711964</v>
@@ -46184,10 +46187,10 @@
         <v>5.92</v>
       </c>
       <c r="M888">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N888">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O888">
         <v>1</v>
@@ -46210,7 +46213,7 @@
         <v>335</v>
       </c>
       <c r="E889">
-        <v>0.4149021278461937</v>
+        <v>0.3557039515577323</v>
       </c>
       <c r="F889">
         <v>-1</v>
@@ -46219,10 +46222,10 @@
         <v>0.01132630060772112</v>
       </c>
       <c r="H889">
-        <v>0.01152509787215381</v>
+        <v>0.01166429604844227</v>
       </c>
       <c r="I889">
-        <v>0.0987972644326911</v>
+        <v>0.1579954407211526</v>
       </c>
       <c r="J889">
         <v>1.653302938141014</v>
@@ -46234,10 +46237,10 @@
         <v>5.92</v>
       </c>
       <c r="M889">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="N889">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="O889">
         <v>1</v>
@@ -46254,28 +46257,28 @@
         <v>202</v>
       </c>
       <c r="C890">
-        <v>1.132699816401468</v>
+        <v>1.209330275206456</v>
       </c>
       <c r="D890" t="s">
         <v>337</v>
       </c>
       <c r="E890">
-        <v>1.205405752753978</v>
+        <v>1.281354041302541</v>
       </c>
       <c r="F890">
         <v>1</v>
       </c>
       <c r="G890">
-        <v>0.01072730018359853</v>
+        <v>0.01065066972479354</v>
       </c>
       <c r="H890">
-        <v>0.01071459424724602</v>
+        <v>0.01063864595869746</v>
       </c>
       <c r="I890">
-        <v>0.07270593635251021</v>
+        <v>0.07202376609608496</v>
       </c>
       <c r="J890">
-        <v>1.423531211750306</v>
+        <v>1.400792203202832</v>
       </c>
       <c r="K890">
         <v>3.37</v>
@@ -46294,6 +46297,56 @@
       </c>
       <c r="P890" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="891" spans="1:16">
+      <c r="A891" s="1">
+        <v>0</v>
+      </c>
+      <c r="B891" t="s">
+        <v>202</v>
+      </c>
+      <c r="C891">
+        <v>1.132699816401468</v>
+      </c>
+      <c r="D891" t="s">
+        <v>337</v>
+      </c>
+      <c r="E891">
+        <v>1.205405752753978</v>
+      </c>
+      <c r="F891">
+        <v>1</v>
+      </c>
+      <c r="G891">
+        <v>0.01072730018359853</v>
+      </c>
+      <c r="H891">
+        <v>0.01071459424724602</v>
+      </c>
+      <c r="I891">
+        <v>0.07270593635251021</v>
+      </c>
+      <c r="J891">
+        <v>1.423531211750306</v>
+      </c>
+      <c r="K891">
+        <v>3.37</v>
+      </c>
+      <c r="L891">
+        <v>5.93</v>
+      </c>
+      <c r="M891">
+        <v>3.34</v>
+      </c>
+      <c r="N891">
+        <v>5.96</v>
+      </c>
+      <c r="O891">
+        <v>1</v>
+      </c>
+      <c r="P891" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-01766-601766.xlsx
+++ b/s60_signal/position-01766-601766.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="473">
   <si>
     <t>trade_time</t>
   </si>
@@ -625,6 +625,9 @@
     <t>2021-06-25</t>
   </si>
   <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
     <t>2016-07-25</t>
   </si>
   <si>
@@ -1018,13 +1021,10 @@
     <t>2021-06-15</t>
   </si>
   <si>
-    <t>2021-07-14</t>
-  </si>
-  <si>
     <t>2021-06-17</t>
   </si>
   <si>
-    <t>2021-06-23</t>
+    <t>2021-07-16</t>
   </si>
   <si>
     <t>2016-06-21</t>
@@ -1430,6 +1430,9 @@
   </si>
   <si>
     <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P890"/>
+  <dimension ref="A1:P894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,7 +1854,7 @@
         <v>3.243101562510338</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>2.811523862602873</v>
@@ -1901,7 +1904,7 @@
         <v>3.289636006444374</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>2.811523862602873</v>
@@ -1951,7 +1954,7 @@
         <v>2.642153147989039</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>2.397506560213501</v>
@@ -2001,7 +2004,7 @@
         <v>2.634437672345428</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>2.397506560213501</v>
@@ -2051,7 +2054,7 @@
         <v>2.551523862602873</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>2.397506560213501</v>
@@ -2101,7 +2104,7 @@
         <v>3.51273100348791</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>3.28358785697468</v>
@@ -2151,7 +2154,7 @@
         <v>3.487126941772404</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>3.28358785697468</v>
@@ -2201,7 +2204,7 @@
         <v>3.411368566458607</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E9">
         <v>3.28358785697468</v>
@@ -2251,7 +2254,7 @@
         <v>4.114907651256331</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <v>3.865258921200569</v>
@@ -2301,7 +2304,7 @@
         <v>4.017281255370698</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E11">
         <v>3.865258921200569</v>
@@ -2351,7 +2354,7 @@
         <v>3.250435096360468</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E12">
         <v>3.016620926843599</v>
@@ -2401,7 +2404,7 @@
         <v>3.230220676572238</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E13">
         <v>3.016620926843599</v>
@@ -2451,7 +2454,7 @@
         <v>3.152306444487531</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E14">
         <v>3.016620926843599</v>
@@ -2501,7 +2504,7 @@
         <v>3.865906194216171</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E15">
         <v>3.550292149834982</v>
@@ -2551,7 +2554,7 @@
         <v>3.767920488868719</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E16">
         <v>3.550292149834982</v>
@@ -2601,7 +2604,7 @@
         <v>3.172782159400292</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E17">
         <v>2.937585129362215</v>
@@ -2651,7 +2654,7 @@
         <v>3.154163347905764</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E18">
         <v>2.937585129362215</v>
@@ -2701,7 +2704,7 @@
         <v>3.075610872503576</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E19">
         <v>2.937585129362215</v>
@@ -2751,7 +2754,7 @@
         <v>3.792189091047127</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E20">
         <v>3.524163347905765</v>
@@ -2801,7 +2804,7 @@
         <v>3.694097011813428</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E21">
         <v>3.524163347905765</v>
@@ -2851,7 +2854,7 @@
         <v>3.131337540570926</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E22">
         <v>2.895402455676983</v>
@@ -2901,7 +2904,7 @@
         <v>3.113570330833166</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E23">
         <v>2.895402455676983</v>
@@ -2951,7 +2954,7 @@
         <v>3.034677214728271</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E24">
         <v>2.895402455676983</v>
@@ -3001,7 +3004,7 @@
         <v>3.752845089884454</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E25">
         <v>3.419123772780718</v>
@@ -3051,7 +3054,7 @@
         <v>3.654696237200305</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E26">
         <v>3.419123772780718</v>
@@ -3101,7 +3104,7 @@
         <v>2.917985536997794</v>
       </c>
       <c r="D27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E27">
         <v>2.678251032862137</v>
@@ -3151,7 +3154,7 @@
         <v>2.904602272538934</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E28">
         <v>2.678251032862137</v>
@@ -3201,7 +3204,7 @@
         <v>2.823955578322479</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E29">
         <v>2.678251032862137</v>
@@ -3251,7 +3254,7 @@
         <v>3.550306817999275</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E30">
         <v>3.171749999808766</v>
@@ -3301,7 +3304,7 @@
         <v>3.451865702296533</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E31">
         <v>3.171749999808766</v>
@@ -3351,7 +3354,7 @@
         <v>2.695092590325597</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E32">
         <v>2.451388759742354</v>
@@ -3401,7 +3404,7 @@
         <v>2.686289317921646</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E33">
         <v>2.451388759742354</v>
@@ -3451,7 +3454,7 @@
         <v>2.603810626883227</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E34">
         <v>2.451388759742354</v>
@@ -3501,7 +3504,7 @@
         <v>3.33871118506252</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E35">
         <v>3.111246699998485</v>
@@ -3551,7 +3554,7 @@
         <v>2.573608795274185</v>
       </c>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E36">
         <v>2.327741554642081</v>
@@ -3601,7 +3604,7 @@
         <v>2.567301765234304</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E37">
         <v>2.327741554642081</v>
@@ -3651,7 +3654,7 @@
         <v>2.483824577250257</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E38">
         <v>2.327741554642081</v>
@@ -3701,7 +3704,7 @@
         <v>3.22338478784248</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E39">
         <v>3.00338478784248</v>
@@ -3751,7 +3754,7 @@
         <v>3.124471923178472</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E40">
         <v>3.00338478784248</v>
@@ -3801,7 +3804,7 @@
         <v>2.525023995746672</v>
       </c>
       <c r="D41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E41">
         <v>2.278291546355859</v>
@@ -3851,7 +3854,7 @@
         <v>2.519715283505301</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E42">
         <v>2.278291546355859</v>
@@ -3901,7 +3904,7 @@
         <v>2.43583876840185</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E43">
         <v>2.278291546355859</v>
@@ -3951,7 +3954,7 @@
         <v>3.177262505551293</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E44">
         <v>2.878283086367383</v>
@@ -4001,7 +4004,7 @@
         <v>2.49367544506272</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E45">
         <v>2.246384733810411</v>
@@ -4051,7 +4054,7 @@
         <v>2.489010881123074</v>
       </c>
       <c r="D46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E46">
         <v>2.246384733810411</v>
@@ -4101,7 +4104,7 @@
         <v>2.404876706698933</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E47">
         <v>2.246384733810411</v>
@@ -4151,7 +4154,7 @@
         <v>3.147502854011596</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E48">
         <v>2.81434631718343</v>
@@ -4201,7 +4204,7 @@
         <v>2.435576766372018</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E49">
         <v>2.187251421115628</v>
@@ -4251,7 +4254,7 @@
         <v>2.432106010898619</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E50">
         <v>2.187251421115628</v>
@@ -4301,7 +4304,7 @@
         <v>2.347494313087979</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E51">
         <v>2.187251421115628</v>
@@ -4351,7 +4354,7 @@
         <v>3.092348902870971</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E52">
         <v>2.737737205060329</v>
@@ -4401,7 +4404,7 @@
         <v>2.371772059045239</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E53">
         <v>2.122310465576181</v>
@@ -4437,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4451,7 +4454,7 @@
         <v>2.369612359201843</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E54">
         <v>2.122310465576181</v>
@@ -4487,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4501,7 +4504,7 @@
         <v>2.284476239139202</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E55">
         <v>2.122310465576181</v>
@@ -4537,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4551,7 +4554,7 @@
         <v>3.031778132764864</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E56">
         <v>2.649073952670901</v>
@@ -4587,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4601,7 +4604,7 @@
         <v>2.321868001707651</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E57">
         <v>2.07151770584765</v>
@@ -4651,7 +4654,7 @@
         <v>2.320733727699959</v>
       </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E58">
         <v>2.07151770584765</v>
@@ -4701,7 +4704,7 @@
         <v>2.235187437303036</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E59">
         <v>2.07151770584765</v>
@@ -4801,7 +4804,7 @@
         <v>2.151512527619126</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E61">
         <v>2.792784685035415</v>
@@ -4901,7 +4904,7 @@
         <v>2.060915719062437</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E63">
         <v>2.69992609762433</v>
@@ -5001,7 +5004,7 @@
         <v>1.929841637735545</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E65">
         <v>2.565579709135323</v>
@@ -5101,7 +5104,7 @@
         <v>1.724822206455505</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E67">
         <v>2.355441900930122</v>
@@ -5201,7 +5204,7 @@
         <v>1.674034425134113</v>
       </c>
       <c r="D69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E69">
         <v>2.303386186094466</v>
@@ -5301,7 +5304,7 @@
         <v>1.623841162955755</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E71">
         <v>2.251939832766024</v>
@@ -5451,7 +5454,7 @@
         <v>2.333284107344603</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E74">
         <v>1.896773826741966</v>
@@ -5487,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5501,7 +5504,7 @@
         <v>2.326740023309851</v>
       </c>
       <c r="D75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E75">
         <v>1.889918119657939</v>
@@ -5551,7 +5554,7 @@
         <v>1.672605536248085</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E76">
         <v>2.015292952838233</v>
@@ -5601,7 +5604,7 @@
         <v>2.422236961918112</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E77">
         <v>2.050376064330505</v>
@@ -5651,7 +5654,7 @@
         <v>2.322168039785237</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E78">
         <v>2.050376064330505</v>
@@ -5701,7 +5704,7 @@
         <v>2.400031453666133</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E79">
         <v>2.26996253153326</v>
@@ -5751,7 +5754,7 @@
         <v>2.452252719470961</v>
       </c>
       <c r="D80" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E80">
         <v>2.081561266982816</v>
@@ -5787,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5801,7 +5804,7 @@
         <v>2.36235515687661</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E81">
         <v>2.081561266982816</v>
@@ -5837,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5851,7 +5854,7 @@
         <v>2.352227110119547</v>
       </c>
       <c r="D82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E82">
         <v>2.081561266982816</v>
@@ -5887,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5901,7 +5904,7 @@
         <v>2.431433220225751</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E83">
         <v>2.311714923091293</v>
@@ -5937,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5951,7 +5954,7 @@
         <v>2.454094657085679</v>
       </c>
       <c r="D84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E84">
         <v>2.083474968400705</v>
@@ -6001,7 +6004,7 @@
         <v>2.364186462816786</v>
       </c>
       <c r="D85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E85">
         <v>2.083474968400705</v>
@@ -6051,7 +6054,7 @@
         <v>2.354071705652902</v>
       </c>
       <c r="D86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E86">
         <v>2.083474968400705</v>
@@ -6151,7 +6154,7 @@
         <v>2.339781007767745</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E88">
         <v>2.057971444982259</v>
@@ -6201,7 +6204,7 @@
         <v>2.329489142802344</v>
       </c>
       <c r="D89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E89">
         <v>2.057971444982259</v>
@@ -6251,7 +6254,7 @@
         <v>2.407679580016858</v>
       </c>
       <c r="D90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E90">
         <v>2.25849680191998</v>
@@ -6301,7 +6304,7 @@
         <v>2.36826330994766</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E91">
         <v>2.25849680191998</v>
@@ -6351,7 +6354,7 @@
         <v>3.548245528330676</v>
       </c>
       <c r="D92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E92">
         <v>4.061344787936081</v>
@@ -6387,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6401,7 +6404,7 @@
         <v>4.409079280825154</v>
       </c>
       <c r="D93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E93">
         <v>4.814235609417867</v>
@@ -6437,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6451,7 +6454,7 @@
         <v>5.769925742504288</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E94">
         <v>6.769399637973693</v>
@@ -6501,7 +6504,7 @@
         <v>7.229395624055007</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E95">
         <v>8.109917714666915</v>
@@ -6551,7 +6554,7 @@
         <v>5.828616664074527</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E96">
         <v>6.827923586794087</v>
@@ -6601,7 +6604,7 @@
         <v>6.627254795247419</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E97">
         <v>7.429368904817279</v>
@@ -6637,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6651,7 +6654,7 @@
         <v>6.647982466464144</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E98">
         <v>7.429368904817279</v>
@@ -6687,7 +6690,7 @@
         <v>1</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6701,7 +6704,7 @@
         <v>6.738850879729914</v>
       </c>
       <c r="D99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E99">
         <v>7.519850094731065</v>
@@ -6751,7 +6754,7 @@
         <v>6.79484616973682</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E100">
         <v>7.519850094731065</v>
@@ -6801,7 +6804,7 @@
         <v>7.382736713736916</v>
       </c>
       <c r="D101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E101">
         <v>6.823146636869726</v>
@@ -6851,7 +6854,7 @@
         <v>4.077630001836678</v>
       </c>
       <c r="D102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E102">
         <v>4.295890041790149</v>
@@ -6901,7 +6904,7 @@
         <v>4.085204721856269</v>
       </c>
       <c r="D103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E103">
         <v>4.295890041790149</v>
@@ -6951,7 +6954,7 @@
         <v>0.2559344762264057</v>
       </c>
       <c r="D104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E104">
         <v>0.4288461810550128</v>
@@ -7051,7 +7054,7 @@
         <v>0.3089776058983933</v>
       </c>
       <c r="D106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E106">
         <v>0.07644783487002726</v>
@@ -7101,7 +7104,7 @@
         <v>0.2660659010697888</v>
       </c>
       <c r="D107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E107">
         <v>-0.001905345815551129</v>
@@ -7201,7 +7204,7 @@
         <v>0.2889545424481916</v>
       </c>
       <c r="D109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E109">
         <v>0.05610354580297638</v>
@@ -7251,7 +7254,7 @@
         <v>0.246096375222395</v>
       </c>
       <c r="D110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E110">
         <v>-0.02246378529383364</v>
@@ -7351,7 +7354,7 @@
         <v>-1.630207146872417</v>
       </c>
       <c r="D112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E112">
         <v>-1.215938554569574</v>
@@ -7401,7 +7404,7 @@
         <v>-1.036774334908403</v>
       </c>
       <c r="D113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E113">
         <v>-1.383639958836433</v>
@@ -7451,7 +7454,7 @@
         <v>-1.076087772515599</v>
       </c>
       <c r="D114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E114">
         <v>-1.383639958836433</v>
@@ -7501,7 +7504,7 @@
         <v>-1.110744491319196</v>
       </c>
       <c r="D115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E115">
         <v>-1.383639958836433</v>
@@ -7551,7 +7554,7 @@
         <v>-1.598983240032837</v>
       </c>
       <c r="D116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E116">
         <v>-1.755699646014843</v>
@@ -7601,7 +7604,7 @@
         <v>-2.012129891907831</v>
       </c>
       <c r="D117" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E117">
         <v>-1.639595934646165</v>
@@ -7651,7 +7654,7 @@
         <v>-2.069512610754847</v>
       </c>
       <c r="D118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E118">
         <v>-1.639595934646165</v>
@@ -7701,7 +7704,7 @@
         <v>-1.470284212196077</v>
       </c>
       <c r="D119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E119">
         <v>-1.828741009313617</v>
@@ -7751,7 +7754,7 @@
         <v>-1.508438532484321</v>
       </c>
       <c r="D120" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E120">
         <v>-1.828741009313617</v>
@@ -7801,7 +7804,7 @@
         <v>-1.542515692628445</v>
       </c>
       <c r="D121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E121">
         <v>-1.828741009313617</v>
@@ -7851,7 +7854,7 @@
         <v>-2.044663849169496</v>
       </c>
       <c r="D122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E122">
         <v>-2.204278048448881</v>
@@ -7901,7 +7904,7 @@
         <v>-2.572474789015972</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E123">
         <v>-2.124642573576088</v>
@@ -7951,7 +7954,7 @@
         <v>-1.96661100551972</v>
       </c>
       <c r="D124" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E124">
         <v>-2.338338572512225</v>
@@ -8001,7 +8004,7 @@
         <v>-2.003438248820469</v>
       </c>
       <c r="D125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E125">
         <v>-2.338338572512225</v>
@@ -8051,7 +8054,7 @@
         <v>-2.036851870470842</v>
       </c>
       <c r="D126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E126">
         <v>-2.338338572512225</v>
@@ -8101,7 +8104,7 @@
         <v>-3.407338082790915</v>
       </c>
       <c r="D127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E127">
         <v>-2.849979157056712</v>
@@ -8151,7 +8154,7 @@
         <v>-3.324602190217494</v>
       </c>
       <c r="D128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E128">
         <v>-2.849979157056712</v>
@@ -8201,7 +8204,7 @@
         <v>-2.794507371909873</v>
       </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E129">
         <v>-3.10038849879556</v>
@@ -8251,7 +8254,7 @@
         <v>-2.708815881639428</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E130">
         <v>-3.10038849879556</v>
@@ -8301,7 +8304,7 @@
         <v>-2.743658619923814</v>
       </c>
       <c r="D131" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E131">
         <v>-3.10038849879556</v>
@@ -8351,7 +8354,7 @@
         <v>-2.776079989066007</v>
       </c>
       <c r="D132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E132">
         <v>-3.10038849879556</v>
@@ -8401,7 +8404,7 @@
         <v>-4.198122324411599</v>
       </c>
       <c r="D133" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E133">
         <v>-3.609589249861864</v>
@@ -8451,7 +8454,7 @@
         <v>-4.112269016956628</v>
       </c>
       <c r="D134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E134">
         <v>-3.609589249861864</v>
@@ -8501,7 +8504,7 @@
         <v>-3.54788263495192</v>
       </c>
       <c r="D135" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E135">
         <v>-3.898446708473204</v>
@@ -8551,7 +8554,7 @@
         <v>-3.48609132544005</v>
       </c>
       <c r="D136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E136">
         <v>-3.898446708473204</v>
@@ -8601,7 +8604,7 @@
         <v>-3.518855787136733</v>
       </c>
       <c r="D137" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E137">
         <v>-3.898446708473204</v>
@@ -8651,7 +8654,7 @@
         <v>-3.550238017985075</v>
       </c>
       <c r="D138" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E138">
         <v>-3.898446708473204</v>
@@ -8701,7 +8704,7 @@
         <v>-4.300984707980247</v>
       </c>
       <c r="D139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E139">
         <v>-3.791582878012612</v>
@@ -8751,7 +8754,7 @@
         <v>-3.728382471353138</v>
       </c>
       <c r="D140" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E140">
         <v>-4.089652052412703</v>
@@ -8801,7 +8804,7 @@
         <v>-3.672317363547791</v>
       </c>
       <c r="D141" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E141">
         <v>-4.089652052412703</v>
@@ -8851,7 +8854,7 @@
         <v>-3.704583894661299</v>
       </c>
       <c r="D142" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E142">
         <v>-4.089652052412703</v>
@@ -8901,7 +8904,7 @@
         <v>-3.735717160218051</v>
       </c>
       <c r="D143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E143">
         <v>-4.089652052412703</v>
@@ -8951,7 +8954,7 @@
         <v>3.441688870966403</v>
       </c>
       <c r="D144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E144">
         <v>3.651560048451251</v>
@@ -9051,7 +9054,7 @@
         <v>3.8022990056297</v>
       </c>
       <c r="D146" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E146">
         <v>3.836671882010169</v>
@@ -9101,7 +9104,7 @@
         <v>3.779869630048473</v>
       </c>
       <c r="D147" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E147">
         <v>3.98562223265952</v>
@@ -9401,7 +9404,7 @@
         <v>4.373222703065367</v>
       </c>
       <c r="D153" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E153">
         <v>4.431458212414677</v>
@@ -9451,7 +9454,7 @@
         <v>4.083529379419559</v>
       </c>
       <c r="D154" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E154">
         <v>4.233778249441884</v>
@@ -9487,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9501,7 +9504,7 @@
         <v>4.082413509772715</v>
       </c>
       <c r="D155" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E155">
         <v>4.233778249441884</v>
@@ -9537,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="P155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9551,7 +9554,7 @@
         <v>4.052868422995772</v>
       </c>
       <c r="D156" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E156">
         <v>4.233778249441884</v>
@@ -9587,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9601,7 +9604,7 @@
         <v>4.043984292642614</v>
       </c>
       <c r="D157" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E157">
         <v>4.233778249441884</v>
@@ -9637,7 +9640,7 @@
         <v>1</v>
       </c>
       <c r="P157" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9651,7 +9654,7 @@
         <v>4.389563640876833</v>
       </c>
       <c r="D158" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E158">
         <v>4.179769684077565</v>
@@ -9687,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="P158" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9701,7 +9704,7 @@
         <v>4.401546510148196</v>
       </c>
       <c r="D159" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E159">
         <v>4.411340466947465</v>
@@ -9737,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="P159" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9751,7 +9754,7 @@
         <v>4.094971814749398</v>
       </c>
       <c r="D160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E160">
         <v>4.264780591105191</v>
@@ -9801,7 +9804,7 @@
         <v>4.064216552539926</v>
       </c>
       <c r="D161" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E161">
         <v>4.264780591105191</v>
@@ -9851,7 +9854,7 @@
         <v>4.055253834032031</v>
       </c>
       <c r="D162" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E162">
         <v>4.264780591105191</v>
@@ -9901,7 +9904,7 @@
         <v>4.40044024149256</v>
       </c>
       <c r="D163" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E163">
         <v>4.1909134844194</v>
@@ -9951,7 +9954,7 @@
         <v>4.412706028120979</v>
       </c>
       <c r="D164" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E164">
         <v>4.40044024149256</v>
@@ -10001,7 +10004,7 @@
         <v>4.043749044780681</v>
       </c>
       <c r="D165" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E165">
         <v>4.215527927673731</v>
@@ -10051,7 +10054,7 @@
         <v>4.013415948257763</v>
       </c>
       <c r="D166" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E166">
         <v>4.215527927673731</v>
@@ -10101,7 +10104,7 @@
         <v>4.004805034488664</v>
       </c>
       <c r="D167" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E167">
         <v>4.215527927673731</v>
@@ -10151,7 +10154,7 @@
         <v>4.351750465643174</v>
       </c>
       <c r="D168" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E168">
         <v>4.141027572458107</v>
@@ -10201,7 +10204,7 @@
         <v>4.362749755211928</v>
       </c>
       <c r="D169" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E169">
         <v>4.328639196658452</v>
@@ -10251,7 +10254,7 @@
         <v>3.837290479346144</v>
       </c>
       <c r="D170" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E170">
         <v>4.04476916280097</v>
@@ -10301,7 +10304,7 @@
         <v>4.182943229511817</v>
       </c>
       <c r="D171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E171">
         <v>3.968073337751268</v>
@@ -10401,7 +10404,7 @@
         <v>4.005765648245287</v>
       </c>
       <c r="D173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E173">
         <v>3.78654312804322</v>
@@ -10451,7 +10454,7 @@
         <v>4.007765332737217</v>
       </c>
       <c r="D174" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E174">
         <v>3.953098876409263</v>
@@ -10501,7 +10504,7 @@
         <v>4.02454344355129</v>
       </c>
       <c r="D175" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E175">
         <v>3.953098876409263</v>
@@ -10551,7 +10554,7 @@
         <v>3.953616152889737</v>
       </c>
       <c r="D176" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E176">
         <v>3.677108955456802</v>
@@ -10601,7 +10604,7 @@
         <v>3.903905391470386</v>
       </c>
       <c r="D177" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E177">
         <v>3.812837536808245</v>
@@ -10651,7 +10654,7 @@
         <v>3.917887571538293</v>
       </c>
       <c r="D178" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E178">
         <v>3.812837536808245</v>
@@ -10701,7 +10704,7 @@
         <v>3.902034725100593</v>
       </c>
       <c r="D179" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E179">
         <v>3.623875720664222</v>
@@ -10751,7 +10754,7 @@
         <v>3.886926312984887</v>
       </c>
       <c r="D180" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E180">
         <v>3.769904630561744</v>
@@ -10801,7 +10804,7 @@
         <v>3.866005815203071</v>
       </c>
       <c r="D181" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E181">
         <v>3.769904630561744</v>
@@ -10851,7 +10854,7 @@
         <v>3.848331413478074</v>
       </c>
       <c r="D182" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E182">
         <v>3.568452652337633</v>
@@ -10901,7 +10904,7 @@
         <v>3.832050439973229</v>
       </c>
       <c r="D183" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E183">
         <v>3.65479424527226</v>
@@ -10951,7 +10954,7 @@
         <v>3.811989820543448</v>
       </c>
       <c r="D184" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E184">
         <v>3.65479424527226</v>
@@ -11001,7 +11004,7 @@
         <v>3.782176954997707</v>
       </c>
       <c r="D185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E185">
         <v>3.500179710470706</v>
@@ -11051,7 +11054,7 @@
         <v>3.764451561002026</v>
       </c>
       <c r="D186" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E186">
         <v>3.586906482202889</v>
@@ -11101,7 +11104,7 @@
         <v>3.745450183265525</v>
       </c>
       <c r="D187" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E187">
         <v>3.586906482202889</v>
@@ -11151,7 +11154,7 @@
         <v>3.771581102618217</v>
       </c>
       <c r="D188" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E188">
         <v>3.489244544041217</v>
@@ -11201,7 +11204,7 @@
         <v>3.753624358133901</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E189">
         <v>3.576033009237036</v>
@@ -11251,7 +11254,7 @@
         <v>3.734792637422399</v>
       </c>
       <c r="D190" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E190">
         <v>3.576033009237036</v>
@@ -11301,7 +11304,7 @@
         <v>3.801691864414723</v>
       </c>
       <c r="D191" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E191">
         <v>3.520319551484772</v>
@@ -11351,7 +11354,7 @@
         <v>3.784392560144303</v>
       </c>
       <c r="D192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E192">
         <v>3.606932699290218</v>
@@ -11401,7 +11404,7 @@
         <v>3.765078716609277</v>
       </c>
       <c r="D193" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E193">
         <v>3.606932699290218</v>
@@ -11451,7 +11454,7 @@
         <v>3.757917937598063</v>
       </c>
       <c r="D194" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E194">
         <v>3.593577848445167</v>
@@ -11501,7 +11504,7 @@
         <v>3.739662870733393</v>
       </c>
       <c r="D195" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E195">
         <v>3.562011857360458</v>
@@ -11551,7 +11554,7 @@
         <v>3.721049919767484</v>
       </c>
       <c r="D196" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E196">
         <v>3.562011857360458</v>
@@ -11601,7 +11604,7 @@
         <v>3.654060057628653</v>
       </c>
       <c r="D197" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E197">
         <v>3.486696449408235</v>
@@ -11651,7 +11654,7 @@
         <v>3.633537351463342</v>
       </c>
       <c r="D198" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E198">
         <v>3.455432810230278</v>
@@ -11701,7 +11704,7 @@
         <v>3.63416917105232</v>
       </c>
       <c r="D199" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E199">
         <v>3.680378253518446</v>
@@ -11751,7 +11754,7 @@
         <v>3.663638628212444</v>
       </c>
       <c r="D200" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E200">
         <v>3.496553872119646</v>
@@ -11801,7 +11804,7 @@
         <v>3.643325061142847</v>
       </c>
       <c r="D201" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E201">
         <v>3.515262347728926</v>
@@ -11851,7 +11854,7 @@
         <v>3.643970823338207</v>
       </c>
       <c r="D202" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E202">
         <v>3.346221676993885</v>
@@ -11951,7 +11954,7 @@
         <v>3.732518473414919</v>
       </c>
       <c r="D204" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E204">
         <v>3.567438952990316</v>
@@ -12001,7 +12004,7 @@
         <v>3.713708833096469</v>
       </c>
       <c r="D205" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E205">
         <v>3.585946905032777</v>
@@ -12051,7 +12054,7 @@
         <v>3.714454857075237</v>
       </c>
       <c r="D206" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E206">
         <v>3.415502569329999</v>
@@ -12151,7 +12154,7 @@
         <v>3.805132584430824</v>
       </c>
       <c r="D208" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E208">
         <v>3.642167011925171</v>
@@ -12201,7 +12204,7 @@
         <v>3.787908405051586</v>
       </c>
       <c r="D209" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E209">
         <v>3.660463569175736</v>
@@ -12251,7 +12254,7 @@
         <v>3.768539469929693</v>
       </c>
       <c r="D210" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E210">
         <v>3.660463569175736</v>
@@ -12301,7 +12304,7 @@
         <v>3.788760126426302</v>
       </c>
       <c r="D211" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E211">
         <v>3.488539469929694</v>
@@ -12387,7 +12390,7 @@
         <v>1</v>
       </c>
       <c r="P212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12401,7 +12404,7 @@
         <v>3.860377371854645</v>
       </c>
       <c r="D213" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E213">
         <v>3.699020090103688</v>
@@ -12437,7 +12440,7 @@
         <v>1</v>
       </c>
       <c r="P213" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12451,7 +12454,7 @@
         <v>3.844359410541429</v>
       </c>
       <c r="D214" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E214">
         <v>3.717155818278784</v>
@@ -12487,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="P214" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12501,7 +12504,7 @@
         <v>3.824105915504454</v>
       </c>
       <c r="D215" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E215">
         <v>3.717155818278784</v>
@@ -12537,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="P215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12551,7 +12554,7 @@
         <v>3.597834459154263</v>
       </c>
       <c r="D216" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E216">
         <v>3.522495138716523</v>
@@ -12587,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="P216" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12601,7 +12604,7 @@
         <v>0.625943177311898</v>
       </c>
       <c r="D217" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E217">
         <v>0.1379206150209047</v>
@@ -12651,7 +12654,7 @@
         <v>0.7658867715844124</v>
       </c>
       <c r="D218" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E218">
         <v>0.1379206150209047</v>
@@ -12701,7 +12704,7 @@
         <v>0.5858867715844109</v>
       </c>
       <c r="D219" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E219">
         <v>0.1379206150209047</v>
@@ -12851,7 +12854,7 @@
         <v>0.663525902861652</v>
       </c>
       <c r="D222" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E222">
         <v>0.175066966398818</v>
@@ -12901,7 +12904,7 @@
         <v>0.5877553710930705</v>
       </c>
       <c r="D223" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E223">
         <v>0.175066966398818</v>
@@ -12951,7 +12954,7 @@
         <v>0.8023785617045647</v>
       </c>
       <c r="D224" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E224">
         <v>0.175066966398818</v>
@@ -13001,7 +13004,7 @@
         <v>0.6223785617045632</v>
       </c>
       <c r="D225" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E225">
         <v>0.175066966398818</v>
@@ -13151,7 +13154,7 @@
         <v>0.4716402043713206</v>
       </c>
       <c r="D228" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E228">
         <v>0.03601049292784353</v>
@@ -13201,7 +13204,7 @@
         <v>0.4737683280770817</v>
       </c>
       <c r="D229" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E229">
         <v>0.03601049292784353</v>
@@ -13251,7 +13254,7 @@
         <v>-0.4038754659271504</v>
       </c>
       <c r="D230" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E230">
         <v>-0.7248363937203361</v>
@@ -13301,7 +13304,7 @@
         <v>-0.3805801463088194</v>
       </c>
       <c r="D231" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E231">
         <v>-0.7248363937203361</v>
@@ -13351,7 +13354,7 @@
         <v>-0.4605801463088195</v>
       </c>
       <c r="D232" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E232">
         <v>-0.7248363937203361</v>
@@ -13401,7 +13404,7 @@
         <v>-1.654646533801483</v>
       </c>
       <c r="D233" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E233">
         <v>-1.429234276956707</v>
@@ -13437,7 +13440,7 @@
         <v>1</v>
       </c>
       <c r="P233" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13451,7 +13454,7 @@
         <v>-1.787765390147543</v>
       </c>
       <c r="D234" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E234">
         <v>-1.429234276956707</v>
@@ -13487,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="P234" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:16">
@@ -13501,7 +13504,7 @@
         <v>-1.544731674061682</v>
       </c>
       <c r="D235" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E235">
         <v>-1.809837684076546</v>
@@ -13551,7 +13554,7 @@
         <v>-1.469054674516903</v>
       </c>
       <c r="D236" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E236">
         <v>-1.809837684076546</v>
@@ -13601,7 +13604,7 @@
         <v>-1.543638678158672</v>
       </c>
       <c r="D237" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E237">
         <v>-1.809837684076546</v>
@@ -13651,7 +13654,7 @@
         <v>-2.073377674972123</v>
       </c>
       <c r="D238" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E238">
         <v>-1.780881696822737</v>
@@ -13701,7 +13704,7 @@
         <v>-1.652132987219185</v>
       </c>
       <c r="D239" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E239">
         <v>-1.934727966537217</v>
@@ -13751,7 +13754,7 @@
         <v>-1.649689974810006</v>
       </c>
       <c r="D240" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E240">
         <v>-1.934727966537217</v>
@@ -13801,7 +13804,7 @@
         <v>-2.180478984461589</v>
       </c>
       <c r="D241" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E241">
         <v>-1.915592959643229</v>
@@ -13851,7 +13854,7 @@
         <v>-1.737604814589712</v>
       </c>
       <c r="D242" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E242">
         <v>-2.018409182999145</v>
@@ -13901,7 +13904,7 @@
         <v>-2.26571206371097</v>
       </c>
       <c r="D243" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E243">
         <v>-1.998677305802289</v>
@@ -13951,7 +13954,7 @@
         <v>-1.819533600394442</v>
       </c>
       <c r="D244" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E244">
         <v>-2.22286478809788</v>
@@ -14001,7 +14004,7 @@
         <v>-2.347411998158703</v>
       </c>
       <c r="D245" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E245">
         <v>-2.078317578037055</v>
@@ -14051,7 +14054,7 @@
         <v>-2.415714139279594</v>
       </c>
       <c r="D246" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E246">
         <v>-2.144897816440613</v>
@@ -14101,7 +14104,7 @@
         <v>-2.436972664625649</v>
       </c>
       <c r="D247" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E247">
         <v>-2.200816202245704</v>
@@ -14151,7 +14154,7 @@
         <v>-2.516890282739048</v>
       </c>
       <c r="D248" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E248">
         <v>-2.243523300821257</v>
@@ -14201,7 +14204,7 @@
         <v>-2.522986556894401</v>
       </c>
       <c r="D249" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E249">
         <v>-2.3355828882186</v>
@@ -14251,7 +14254,7 @@
         <v>-3.131557245685132</v>
       </c>
       <c r="D250" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E250">
         <v>-3.347513294796991</v>
@@ -14301,7 +14304,7 @@
         <v>-3.047779776380045</v>
       </c>
       <c r="D251" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E251">
         <v>-3.377200086071589</v>
@@ -14351,7 +14354,7 @@
         <v>-3.069378665878359</v>
       </c>
       <c r="D252" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E252">
         <v>-3.377200086071589</v>
@@ -14401,7 +14404,7 @@
         <v>-3.163756593478626</v>
       </c>
       <c r="D253" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E253">
         <v>-3.379340932947848</v>
@@ -14451,7 +14454,7 @@
         <v>-3.07974680564689</v>
       </c>
       <c r="D254" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E254">
         <v>-3.410607490203656</v>
@@ -14501,7 +14504,7 @@
         <v>-3.102182041841141</v>
       </c>
       <c r="D255" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E255">
         <v>-3.410607490203656</v>
@@ -14551,7 +14554,7 @@
         <v>-3.524211405336349</v>
       </c>
       <c r="D256" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E256">
         <v>-3.577409447770004</v>
@@ -14601,7 +14604,7 @@
         <v>0.6985619802361995</v>
       </c>
       <c r="D257" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E257">
         <v>0.4443773057352942</v>
@@ -14651,7 +14654,7 @@
         <v>0.2116110986844824</v>
       </c>
       <c r="D258" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E258">
         <v>0.5643773057352952</v>
@@ -14701,7 +14704,7 @@
         <v>0.2545187614340296</v>
       </c>
       <c r="D259" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E259">
         <v>0.5643773057352952</v>
@@ -14751,7 +14754,7 @@
         <v>0.2430295661345721</v>
       </c>
       <c r="D260" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E260">
         <v>0.4588448916336674</v>
@@ -14801,7 +14804,7 @@
         <v>0.6450845842289681</v>
       </c>
       <c r="D261" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E261">
         <v>0.3235953889295118</v>
@@ -14901,7 +14904,7 @@
         <v>0.7941490617311544</v>
       </c>
       <c r="D263" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E263">
         <v>0.5413183118973173</v>
@@ -14951,7 +14954,7 @@
         <v>0.3097706370468654</v>
       </c>
       <c r="D264" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E264">
         <v>0.6613183118973183</v>
@@ -15001,7 +15004,7 @@
         <v>0.3533552621299467</v>
       </c>
       <c r="D265" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E265">
         <v>0.6613183118973183</v>
@@ -15051,7 +15054,7 @@
         <v>0.3410537120302486</v>
       </c>
       <c r="D266" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E266">
         <v>0.5582229621964121</v>
@@ -15101,7 +15104,7 @@
         <v>0.7515030630604631</v>
       </c>
       <c r="D267" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E267">
         <v>0.4292015129607663</v>
@@ -15201,7 +15204,7 @@
         <v>0.4166051310402512</v>
       </c>
       <c r="D269" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E269">
         <v>0.7668265845859583</v>
@@ -15251,7 +15254,7 @@
         <v>0.460926545737081</v>
       </c>
       <c r="D270" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E270">
         <v>0.7668265845859583</v>
@@ -15301,7 +15304,7 @@
         <v>0.4477408481008851</v>
       </c>
       <c r="D271" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E271">
         <v>0.6663836774945437</v>
@@ -15351,7 +15354,7 @@
         <v>0.8673263903415673</v>
       </c>
       <c r="D272" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E272">
         <v>0.5441406927053745</v>
@@ -15451,7 +15454,7 @@
         <v>0.4961745637454023</v>
       </c>
       <c r="D274" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E274">
         <v>0.8454082588161489</v>
@@ -15487,7 +15490,7 @@
         <v>1</v>
       </c>
       <c r="P274" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275" spans="1:16">
@@ -15501,7 +15504,7 @@
         <v>0.5410447331505424</v>
       </c>
       <c r="D275" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E275">
         <v>0.8454082588161489</v>
@@ -15537,7 +15540,7 @@
         <v>1</v>
       </c>
       <c r="P275" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="276" spans="1:16">
@@ -15551,7 +15554,7 @@
         <v>0.5272005298643734</v>
       </c>
       <c r="D276" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E276">
         <v>0.7469408686746544</v>
@@ -15587,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="P276" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="277" spans="1:16">
@@ -15601,7 +15604,7 @@
         <v>0.953590630488117</v>
       </c>
       <c r="D277" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E277">
         <v>0.6297464272019511</v>
@@ -15637,7 +15640,7 @@
         <v>1</v>
       </c>
       <c r="P277" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="278" spans="1:16">
@@ -15687,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="P278" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279" spans="1:16">
@@ -15701,7 +15704,7 @@
         <v>0.7398405907582468</v>
       </c>
       <c r="D279" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E279">
         <v>1.086049466183317</v>
@@ -15751,7 +15754,7 @@
         <v>0.7863912155220971</v>
       </c>
       <c r="D280" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E280">
         <v>1.086049466183317</v>
@@ -15801,7 +15804,7 @@
         <v>0.7705304658054768</v>
       </c>
       <c r="D281" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E281">
         <v>0.9936317153331773</v>
@@ -15851,7 +15854,7 @@
         <v>1.217758212877216</v>
       </c>
       <c r="D282" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E282">
         <v>0.891897463160598</v>
@@ -15951,7 +15954,7 @@
         <v>0.8404768364070323</v>
       </c>
       <c r="D284" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E284">
         <v>1.185436434299911</v>
@@ -16001,7 +16004,7 @@
         <v>0.8771704378117802</v>
       </c>
       <c r="D285" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E285">
         <v>1.185436434299911</v>
@@ -16051,7 +16054,7 @@
         <v>0.8710279028395735</v>
       </c>
       <c r="D286" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E286">
         <v>1.095517238514154</v>
@@ -16101,7 +16104,7 @@
         <v>1.326861784021968</v>
       </c>
       <c r="D287" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E287">
         <v>1.000168182617221</v>
@@ -16251,7 +16254,7 @@
         <v>0.9191467676646941</v>
       </c>
       <c r="D290" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E290">
         <v>1.263129773307477</v>
@@ -16301,7 +16304,7 @@
         <v>1.412150840530273</v>
       </c>
       <c r="D291" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E291">
         <v>1.084806177625463</v>
@@ -16401,7 +16404,7 @@
         <v>0.9146273854272415</v>
       </c>
       <c r="D293" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E293">
         <v>0.8634785090778685</v>
@@ -16451,7 +16454,7 @@
         <v>0.9881745201758667</v>
       </c>
       <c r="D294" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E294">
         <v>1.331300629580579</v>
@@ -16501,7 +16504,7 @@
         <v>1.486986445321696</v>
       </c>
       <c r="D295" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E295">
         <v>1.159070518258174</v>
@@ -16551,7 +16554,7 @@
         <v>1.384628046088775</v>
       </c>
       <c r="D296" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E296">
         <v>1.159070518258174</v>
@@ -16651,7 +16654,7 @@
         <v>1.568515655101596</v>
       </c>
       <c r="D298" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E298">
         <v>1.239977367658073</v>
@@ -16701,7 +16704,7 @@
         <v>1.463875267808676</v>
       </c>
       <c r="D299" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E299">
         <v>1.239977367658073</v>
@@ -16751,7 +16754,7 @@
         <v>0.9955922299886435</v>
       </c>
       <c r="D300" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E300">
         <v>0.9990028926204211</v>
@@ -16801,7 +16804,7 @@
         <v>1.677993157711763</v>
       </c>
       <c r="D301" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E301">
         <v>1.348619164141446</v>
@@ -16851,7 +16854,7 @@
         <v>1.570288514620596</v>
       </c>
       <c r="D302" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E302">
         <v>1.348619164141446</v>
@@ -16901,7 +16904,7 @@
         <v>1.106741144852402</v>
       </c>
       <c r="D303" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E303">
         <v>1.107784488901872</v>
@@ -16951,7 +16954,7 @@
         <v>1.742513494588377</v>
       </c>
       <c r="D304" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E304">
         <v>1.412646979362513</v>
@@ -17001,7 +17004,7 @@
         <v>1.633002938760204</v>
       </c>
       <c r="D305" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E305">
         <v>1.412646979362513</v>
@@ -17101,7 +17104,7 @@
         <v>1.805034484116738</v>
       </c>
       <c r="D307" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E307">
         <v>1.474690709428826</v>
@@ -17151,7 +17154,7 @@
         <v>1.69377397692772</v>
       </c>
       <c r="D308" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E308">
         <v>1.474690709428826</v>
@@ -17201,7 +17204,7 @@
         <v>1.722914540207936</v>
       </c>
       <c r="D309" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E309">
         <v>1.39274265286398</v>
@@ -17251,7 +17254,7 @@
         <v>1.235722033492567</v>
       </c>
       <c r="D310" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E310">
         <v>1.194518822084868</v>
@@ -17301,7 +17304,7 @@
         <v>1.870945052560478</v>
       </c>
       <c r="D311" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E311">
         <v>1.540098143762307</v>
@@ -17351,7 +17354,7 @@
         <v>1.757839720300515</v>
       </c>
       <c r="D312" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E312">
         <v>1.540098143762307</v>
@@ -17401,7 +17404,7 @@
         <v>1.785722448305086</v>
       </c>
       <c r="D313" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E313">
         <v>1.455298993906002</v>
@@ -17501,7 +17504,7 @@
         <v>1.899125582028087</v>
       </c>
       <c r="D315" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E315">
         <v>1.568063554684362</v>
@@ -17537,7 +17540,7 @@
         <v>1</v>
       </c>
       <c r="P315" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="316" spans="1:16">
@@ -17551,7 +17554,7 @@
         <v>1.785231481767759</v>
       </c>
       <c r="D316" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E316">
         <v>1.568063554684362</v>
@@ -17587,7 +17590,7 @@
         <v>1</v>
       </c>
       <c r="P316" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="317" spans="1:16">
@@ -17601,7 +17604,7 @@
         <v>1.812576413408444</v>
       </c>
       <c r="D317" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E317">
         <v>1.482045399736583</v>
@@ -17637,7 +17640,7 @@
         <v>1</v>
       </c>
       <c r="P317" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="318" spans="1:16">
@@ -17651,7 +17654,7 @@
         <v>1.331249636715539</v>
       </c>
       <c r="D318" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E318">
         <v>1.415762495439622</v>
@@ -17687,7 +17690,7 @@
         <v>1</v>
       </c>
       <c r="P318" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="319" spans="1:16">
@@ -17801,7 +17804,7 @@
         <v>1.822704074329991</v>
       </c>
       <c r="D321" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E321">
         <v>1.492132495928136</v>
@@ -18001,7 +18004,7 @@
         <v>1.844747253622594</v>
       </c>
       <c r="D325" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E325">
         <v>1.514087384782985</v>
@@ -18237,7 +18240,7 @@
         <v>1</v>
       </c>
       <c r="P329" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="330" spans="1:16">
@@ -18287,7 +18290,7 @@
         <v>1</v>
       </c>
       <c r="P330" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="331" spans="1:16">
@@ -18301,7 +18304,7 @@
         <v>1.905060827919813</v>
       </c>
       <c r="D331" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E331">
         <v>1.574159382681151</v>
@@ -18337,7 +18340,7 @@
         <v>1</v>
       </c>
       <c r="P331" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="332" spans="1:16">
@@ -18387,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="P332" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="333" spans="1:16">
@@ -18437,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="P333" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="334" spans="1:16">
@@ -18487,7 +18490,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="335" spans="1:16">
@@ -18501,7 +18504,7 @@
         <v>2.171983384191653</v>
       </c>
       <c r="D335" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E335">
         <v>2.204898359259156</v>
@@ -18651,7 +18654,7 @@
         <v>1.952914540694782</v>
       </c>
       <c r="D338" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E338">
         <v>1.62182142504447</v>
@@ -18851,7 +18854,7 @@
         <v>2.179252235816775</v>
       </c>
       <c r="D342" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E342">
         <v>2.212248088231984</v>
@@ -19001,7 +19004,7 @@
         <v>1.960486682373803</v>
       </c>
       <c r="D345" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E345">
         <v>1.629363237718101</v>
@@ -19151,7 +19154,7 @@
         <v>2.154780197587645</v>
       </c>
       <c r="D348" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E348">
         <v>2.187503760286814</v>
@@ -19301,7 +19304,7 @@
         <v>1.934993557709523</v>
       </c>
       <c r="D351" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E351">
         <v>1.603972221697336</v>
@@ -19601,7 +19604,7 @@
         <v>1.929708178794847</v>
       </c>
       <c r="D357" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E357">
         <v>1.580374956308318</v>
@@ -19651,7 +19654,7 @@
         <v>1.188709675226703</v>
       </c>
       <c r="D358" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E358">
         <v>0.9637105065777352</v>
@@ -19737,7 +19740,7 @@
         <v>1</v>
       </c>
       <c r="P359" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="360" spans="1:16">
@@ -19787,7 +19790,7 @@
         <v>1</v>
       </c>
       <c r="P360" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="361" spans="1:16">
@@ -19837,7 +19840,7 @@
         <v>1</v>
       </c>
       <c r="P361" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="362" spans="1:16">
@@ -19887,7 +19890,7 @@
         <v>1</v>
       </c>
       <c r="P362" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="363" spans="1:16">
@@ -19901,7 +19904,7 @@
         <v>1.195364511122933</v>
       </c>
       <c r="D363" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E363">
         <v>0.9294680860372049</v>
@@ -19937,7 +19940,7 @@
         <v>1</v>
       </c>
       <c r="P363" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="364" spans="1:16">
@@ -20151,7 +20154,7 @@
         <v>1.196880596489463</v>
       </c>
       <c r="D368" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E368">
         <v>1.117568433078354</v>
@@ -20401,7 +20404,7 @@
         <v>1.214608625915525</v>
       </c>
       <c r="D373" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E373">
         <v>1.283141571142766</v>
@@ -20601,7 +20604,7 @@
         <v>1.186887430408948</v>
       </c>
       <c r="D377" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E377">
         <v>1.285894308899635</v>
@@ -20751,7 +20754,7 @@
         <v>1.153653122665109</v>
       </c>
       <c r="D380" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E380">
         <v>1.257399888895324</v>
@@ -20837,7 +20840,7 @@
         <v>1</v>
       </c>
       <c r="P381" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="382" spans="1:16">
@@ -20887,7 +20890,7 @@
         <v>1</v>
       </c>
       <c r="P382" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="383" spans="1:16">
@@ -21001,7 +21004,7 @@
         <v>0.8759988973248651</v>
       </c>
       <c r="D385" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E385">
         <v>0.9501238499442906</v>
@@ -21051,7 +21054,7 @@
         <v>0.9307488427654169</v>
       </c>
       <c r="D386" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E386">
         <v>0.9501238499442906</v>
@@ -21201,7 +21204,7 @@
         <v>0.7617642371331348</v>
       </c>
       <c r="D389" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E389">
         <v>1.020980669197449</v>
@@ -21251,7 +21254,7 @@
         <v>0.8108619467829499</v>
       </c>
       <c r="D390" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E390">
         <v>1.020980669197449</v>
@@ -21401,7 +21404,7 @@
         <v>0.6948350874985758</v>
       </c>
       <c r="D393" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E393">
         <v>0.7907320904119164</v>
@@ -21451,7 +21454,7 @@
         <v>0.740621198598765</v>
       </c>
       <c r="D394" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E394">
         <v>0.7907320904119164</v>
@@ -21851,7 +21854,7 @@
         <v>0.6646904187964902</v>
       </c>
       <c r="D402" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E402">
         <v>0.5071832846035527</v>
@@ -21901,7 +21904,7 @@
         <v>0.7089849968098569</v>
       </c>
       <c r="D403" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E403">
         <v>0.5071832846035527</v>
@@ -21951,7 +21954,7 @@
         <v>0.6682342833905643</v>
       </c>
       <c r="D404" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E404">
         <v>0.5071832846035527</v>
@@ -22151,7 +22154,7 @@
         <v>0.7432347119479275</v>
       </c>
       <c r="D408" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E408">
         <v>0.6707453955694014</v>
@@ -22201,7 +22204,7 @@
         <v>0.7820857966962995</v>
       </c>
       <c r="D409" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E409">
         <v>0.6707453955694014</v>
@@ -22251,7 +22254,7 @@
         <v>0.7511762387887622</v>
       </c>
       <c r="D410" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E410">
         <v>0.6707453955694014</v>
@@ -22337,7 +22340,7 @@
         <v>1</v>
       </c>
       <c r="P411" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="412" spans="1:16">
@@ -22387,7 +22390,7 @@
         <v>1</v>
       </c>
       <c r="P412" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="413" spans="1:16">
@@ -22437,7 +22440,7 @@
         <v>1</v>
       </c>
       <c r="P413" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="414" spans="1:16">
@@ -22451,7 +22454,7 @@
         <v>0.8216522553499699</v>
       </c>
       <c r="D414" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E414">
         <v>1.394472460139291</v>
@@ -22487,7 +22490,7 @@
         <v>1</v>
       </c>
       <c r="P414" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="415" spans="1:16">
@@ -22501,7 +22504,7 @@
         <v>0.8629538883296561</v>
       </c>
       <c r="D415" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E415">
         <v>1.394472460139291</v>
@@ -22537,7 +22540,7 @@
         <v>1</v>
       </c>
       <c r="P415" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="416" spans="1:16">
@@ -22551,7 +22554,7 @@
         <v>0.8339843477719082</v>
       </c>
       <c r="D416" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E416">
         <v>1.394472460139291</v>
@@ -22587,7 +22590,7 @@
         <v>1</v>
       </c>
       <c r="P416" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="417" spans="1:16">
@@ -22751,7 +22754,7 @@
         <v>0.9101672579802429</v>
       </c>
       <c r="D420" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E420">
         <v>1.488980666072655</v>
@@ -22801,7 +22804,7 @@
         <v>0.9542349847921239</v>
       </c>
       <c r="D421" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E421">
         <v>1.488980666072655</v>
@@ -22851,7 +22854,7 @@
         <v>0.9274552685181989</v>
       </c>
       <c r="D422" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E422">
         <v>1.488980666072655</v>
@@ -23001,7 +23004,7 @@
         <v>0.9657431826212832</v>
       </c>
       <c r="D425" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E425">
         <v>1.548319543944599</v>
@@ -23051,7 +23054,7 @@
         <v>1.011547657078197</v>
       </c>
       <c r="D426" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E426">
         <v>1.548319543944599</v>
@@ -23101,7 +23104,7 @@
         <v>0.9861428660232558</v>
       </c>
       <c r="D427" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E427">
         <v>1.548319543944599</v>
@@ -23201,7 +23204,7 @@
         <v>0.8844661762798571</v>
       </c>
       <c r="D429" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E429">
         <v>1.461539406965473</v>
@@ -23251,7 +23254,7 @@
         <v>0.9277307442886018</v>
       </c>
       <c r="D430" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E430">
         <v>1.461539406965473</v>
@@ -23301,7 +23304,7 @@
         <v>0.9003151939621921</v>
       </c>
       <c r="D431" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E431">
         <v>1.461539406965473</v>
@@ -23351,7 +23354,7 @@
         <v>0.7931634996038204</v>
       </c>
       <c r="D432" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E432">
         <v>1.36405477822283</v>
@@ -23387,7 +23390,7 @@
         <v>1</v>
       </c>
       <c r="P432" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="433" spans="1:16">
@@ -23401,7 +23404,7 @@
         <v>0.8335748589664389</v>
       </c>
       <c r="D433" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E433">
         <v>1.36405477822283</v>
@@ -23437,7 +23440,7 @@
         <v>1</v>
       </c>
       <c r="P433" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="434" spans="1:16">
@@ -23451,7 +23454,7 @@
         <v>0.8039005184618464</v>
       </c>
       <c r="D434" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E434">
         <v>1.36405477822283</v>
@@ -23487,7 +23490,7 @@
         <v>1</v>
       </c>
       <c r="P434" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="435" spans="1:16">
@@ -23501,7 +23504,7 @@
         <v>0.8355917364899295</v>
       </c>
       <c r="D435" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E435">
         <v>1.409355760314769</v>
@@ -23551,7 +23554,7 @@
         <v>0.8773289782552389</v>
       </c>
       <c r="D436" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E436">
         <v>1.409355760314769</v>
@@ -23601,7 +23604,7 @@
         <v>0.8487042946527765</v>
       </c>
       <c r="D437" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E437">
         <v>1.409355760314769</v>
@@ -23687,7 +23690,7 @@
         <v>1</v>
       </c>
       <c r="P438" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="439" spans="1:16">
@@ -23701,7 +23704,7 @@
         <v>0.8424985093805963</v>
       </c>
       <c r="D439" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E439">
         <v>1.416730179286574</v>
@@ -23737,7 +23740,7 @@
         <v>1</v>
       </c>
       <c r="P439" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="440" spans="1:16">
@@ -23751,7 +23754,7 @@
         <v>0.8844515877987398</v>
       </c>
       <c r="D440" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E440">
         <v>1.416730179286574</v>
@@ -23787,7 +23790,7 @@
         <v>1</v>
       </c>
       <c r="P440" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="441" spans="1:16">
@@ -23801,7 +23804,7 @@
         <v>0.8559977748797696</v>
       </c>
       <c r="D441" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E441">
         <v>1.416730179286574</v>
@@ -23837,7 +23840,7 @@
         <v>1</v>
       </c>
       <c r="P441" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="442" spans="1:16">
@@ -23851,7 +23854,7 @@
         <v>1.3975439619608</v>
       </c>
       <c r="D442" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E442">
         <v>1.517299827158533</v>
@@ -23887,7 +23890,7 @@
         <v>1</v>
       </c>
       <c r="P442" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="443" spans="1:16">
@@ -23901,7 +23904,7 @@
         <v>0.884482412735685</v>
       </c>
       <c r="D443" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E443">
         <v>1.461556742764664</v>
@@ -23951,7 +23954,7 @@
         <v>0.927747488133674</v>
       </c>
       <c r="D444" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E444">
         <v>1.461556742764664</v>
@@ -24001,7 +24004,7 @@
         <v>0.9003323394904168</v>
       </c>
       <c r="D445" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E445">
         <v>1.461556742764664</v>
@@ -24051,7 +24054,7 @@
         <v>1.442917190847158</v>
       </c>
       <c r="D446" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E446">
         <v>1.680876518723414</v>
@@ -24101,7 +24104,7 @@
         <v>0.9079753490611466</v>
       </c>
       <c r="D447" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E447">
         <v>1.486640346653829</v>
@@ -24151,7 +24154,7 @@
         <v>0.9519745787193061</v>
       </c>
       <c r="D448" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E448">
         <v>1.486640346653829</v>
@@ -24201,7 +24204,7 @@
         <v>0.925140635532018</v>
       </c>
       <c r="D449" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E449">
         <v>1.486640346653829</v>
@@ -24251,7 +24254,7 @@
         <v>1.468306692344727</v>
       </c>
       <c r="D450" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E450">
         <v>1.705807173808378</v>
@@ -24301,7 +24304,7 @@
         <v>0.9564160406795352</v>
       </c>
       <c r="D451" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E451">
         <v>1.538360876767213</v>
@@ -24351,7 +24354,7 @@
         <v>1.00192904195077</v>
       </c>
       <c r="D452" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E452">
         <v>1.538360876767213</v>
@@ -24401,7 +24404,7 @@
         <v>0.976293501290499</v>
       </c>
       <c r="D453" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E453">
         <v>1.538360876767213</v>
@@ -24451,7 +24454,7 @@
         <v>1.520657960630226</v>
       </c>
       <c r="D454" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E454">
         <v>1.757212334835704</v>
@@ -24501,7 +24504,7 @@
         <v>1.001796159074114</v>
       </c>
       <c r="D455" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E455">
         <v>1.586813607344758</v>
@@ -24551,7 +24554,7 @@
         <v>1.04872728904518</v>
       </c>
       <c r="D456" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E456">
         <v>1.586813607344758</v>
@@ -24601,7 +24604,7 @@
         <v>1.024214433605608</v>
       </c>
       <c r="D457" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E457">
         <v>1.586813607344758</v>
@@ -24651,7 +24654,7 @@
         <v>1.569701578166034</v>
       </c>
       <c r="D458" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E458">
         <v>1.805369621934118</v>
@@ -24701,7 +24704,7 @@
         <v>1.131375070810735</v>
       </c>
       <c r="D459" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E459">
         <v>1.725166091230212</v>
@@ -24751,7 +24754,7 @@
         <v>1.182355541773569</v>
       </c>
       <c r="D460" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E460">
         <v>1.725166091230212</v>
@@ -24801,7 +24804,7 @@
         <v>1.161048414619149</v>
       </c>
       <c r="D461" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E461">
         <v>1.725166091230212</v>
@@ -24851,7 +24854,7 @@
         <v>1.709741287464726</v>
       </c>
       <c r="D462" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E462">
         <v>1.942878493112953</v>
@@ -24901,7 +24904,7 @@
         <v>1.720982982903215</v>
       </c>
       <c r="D463" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E463">
         <v>1.513336012736406</v>
@@ -24951,7 +24954,7 @@
         <v>1.281563945976974</v>
       </c>
       <c r="D464" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E464">
         <v>1.885524004819166</v>
@@ -24987,7 +24990,7 @@
         <v>1</v>
       </c>
       <c r="P464" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="465" spans="1:16">
@@ -25001,7 +25004,7 @@
         <v>1.337237819288754</v>
       </c>
       <c r="D465" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E465">
         <v>1.885524004819166</v>
@@ -25037,7 +25040,7 @@
         <v>1</v>
       </c>
       <c r="P465" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="466" spans="1:16">
@@ -25051,7 +25054,7 @@
         <v>1.319646302327247</v>
       </c>
       <c r="D466" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E466">
         <v>1.885524004819166</v>
@@ -25087,7 +25090,7 @@
         <v>1</v>
       </c>
       <c r="P466" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="467" spans="1:16">
@@ -25101,7 +25104,7 @@
         <v>1.87205478536574</v>
       </c>
       <c r="D467" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E467">
         <v>2.102258614545877</v>
@@ -25137,7 +25140,7 @@
         <v>1</v>
       </c>
       <c r="P467" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="468" spans="1:16">
@@ -25187,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="P468" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="469" spans="1:16">
@@ -25201,7 +25204,7 @@
         <v>1.349426747936501</v>
       </c>
       <c r="D469" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E469">
         <v>1.957981683994701</v>
@@ -25251,7 +25254,7 @@
         <v>1.407221333809515</v>
       </c>
       <c r="D470" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E470">
         <v>1.957981683994701</v>
@@ -25301,7 +25304,7 @@
         <v>1.391308714292319</v>
       </c>
       <c r="D471" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E471">
         <v>1.957981683994701</v>
@@ -25351,7 +25354,7 @@
         <v>1.945396094775123</v>
       </c>
       <c r="D472" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E472">
         <v>2.174274478604488</v>
@@ -25401,7 +25404,7 @@
         <v>1.944997010575388</v>
       </c>
       <c r="D473" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E473">
         <v>1.762411421355811</v>
@@ -25451,7 +25454,7 @@
         <v>1.948704215965599</v>
       </c>
       <c r="D474" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E474">
         <v>1.762411421355811</v>
@@ -25501,7 +25504,7 @@
         <v>1.477021972447642</v>
       </c>
       <c r="D475" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E475">
         <v>2.094216168498784</v>
@@ -25537,7 +25540,7 @@
         <v>1</v>
       </c>
       <c r="P475" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="476" spans="1:16">
@@ -25551,7 +25554,7 @@
         <v>1.53880390908663</v>
       </c>
       <c r="D476" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E476">
         <v>2.094216168498784</v>
@@ -25587,7 +25590,7 @@
         <v>1</v>
       </c>
       <c r="P476" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="477" spans="1:16">
@@ -25601,7 +25604,7 @@
         <v>1.526047942259163</v>
       </c>
       <c r="D477" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E477">
         <v>2.094216168498784</v>
@@ -25637,7 +25640,7 @@
         <v>1</v>
       </c>
       <c r="P477" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="478" spans="1:16">
@@ -25651,7 +25654,7 @@
         <v>2.083291975431695</v>
       </c>
       <c r="D478" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E478">
         <v>2.309678265032328</v>
@@ -25687,7 +25690,7 @@
         <v>1</v>
       </c>
       <c r="P478" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="479" spans="1:16">
@@ -25701,7 +25704,7 @@
         <v>2.076081167006756</v>
       </c>
       <c r="D479" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E479">
         <v>1.963341812553087</v>
@@ -25737,7 +25740,7 @@
         <v>1</v>
       </c>
       <c r="P479" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="480" spans="1:16">
@@ -25751,7 +25754,7 @@
         <v>2.080619070473213</v>
       </c>
       <c r="D480" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E480">
         <v>1.963341812553087</v>
@@ -25787,7 +25790,7 @@
         <v>1</v>
       </c>
       <c r="P480" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="481" spans="1:16">
@@ -25801,7 +25804,7 @@
         <v>1.550026715673766</v>
       </c>
       <c r="D481" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E481">
         <v>2.172163941214178</v>
@@ -25837,7 +25840,7 @@
         <v>1</v>
       </c>
       <c r="P481" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="482" spans="1:16">
@@ -25851,7 +25854,7 @@
         <v>1.614090050538571</v>
       </c>
       <c r="D482" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E482">
         <v>2.172163941214178</v>
@@ -25887,7 +25890,7 @@
         <v>1</v>
       </c>
       <c r="P482" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="483" spans="1:16">
@@ -25901,7 +25904,7 @@
         <v>1.603140190639875</v>
       </c>
       <c r="D483" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E483">
         <v>2.172163941214178</v>
@@ -25937,7 +25940,7 @@
         <v>1</v>
       </c>
       <c r="P483" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="484" spans="1:16">
@@ -25987,7 +25990,7 @@
         <v>1</v>
       </c>
       <c r="P484" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="485" spans="1:16">
@@ -26037,7 +26040,7 @@
         <v>1</v>
       </c>
       <c r="P485" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="486" spans="1:16">
@@ -26087,7 +26090,7 @@
         <v>1</v>
       </c>
       <c r="P486" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="487" spans="1:16">
@@ -26101,7 +26104,7 @@
         <v>1.623258385611686</v>
       </c>
       <c r="D487" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E487">
         <v>2.25035400547081</v>
@@ -26151,7 +26154,7 @@
         <v>1.68961021016205</v>
       </c>
       <c r="D488" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E488">
         <v>2.25035400547081</v>
@@ -26201,7 +26204,7 @@
         <v>1.680472071264423</v>
       </c>
       <c r="D489" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E489">
         <v>2.25035400547081</v>
@@ -26451,7 +26454,7 @@
         <v>1.762765525787095</v>
       </c>
       <c r="D494" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E494">
         <v>2.399306941595595</v>
@@ -26487,7 +26490,7 @@
         <v>1</v>
       </c>
       <c r="P494" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="495" spans="1:16">
@@ -26501,7 +26504,7 @@
         <v>1.83347694846794</v>
       </c>
       <c r="D495" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E495">
         <v>2.399306941595595</v>
@@ -26537,7 +26540,7 @@
         <v>1</v>
       </c>
       <c r="P495" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="496" spans="1:16">
@@ -26551,7 +26554,7 @@
         <v>1.827790158090278</v>
       </c>
       <c r="D496" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E496">
         <v>2.399306941595595</v>
@@ -26587,7 +26590,7 @@
         <v>1</v>
       </c>
       <c r="P496" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="497" spans="1:16">
@@ -26601,7 +26604,7 @@
         <v>2.392103367712614</v>
       </c>
       <c r="D497" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E497">
         <v>2.445799092797729</v>
@@ -26637,7 +26640,7 @@
         <v>1</v>
       </c>
       <c r="P497" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="498" spans="1:16">
@@ -26651,7 +26654,7 @@
         <v>2.418595518914747</v>
       </c>
       <c r="D498" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E498">
         <v>2.445799092797729</v>
@@ -26687,7 +26690,7 @@
         <v>1</v>
       </c>
       <c r="P498" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="499" spans="1:16">
@@ -26701,7 +26704,7 @@
         <v>1.833848033537286</v>
       </c>
       <c r="D499" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E499">
         <v>2.475202327474705</v>
@@ -26751,7 +26754,7 @@
         <v>1.90285254583169</v>
       </c>
       <c r="D500" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E500">
         <v>2.475202327474705</v>
@@ -26801,7 +26804,7 @@
         <v>2.468924307078055</v>
       </c>
       <c r="D501" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E501">
         <v>2.423641774387</v>
@@ -26851,7 +26854,7 @@
         <v>2.492269576426664</v>
       </c>
       <c r="D502" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E502">
         <v>2.423641774387</v>
@@ -26901,7 +26904,7 @@
         <v>1.851549056007959</v>
       </c>
       <c r="D503" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E503">
         <v>2.494101856675164</v>
@@ -26937,7 +26940,7 @@
         <v>1</v>
       </c>
       <c r="P503" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -26951,7 +26954,7 @@
         <v>1.92154464117507</v>
       </c>
       <c r="D504" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E504">
         <v>2.494101856675164</v>
@@ -26987,7 +26990,7 @@
         <v>1</v>
       </c>
       <c r="P504" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -27001,7 +27004,7 @@
         <v>2.488054318341933</v>
       </c>
       <c r="D505" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E505">
         <v>2.382011194841591</v>
@@ -27037,7 +27040,7 @@
         <v>1</v>
       </c>
       <c r="P505" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -27051,7 +27054,7 @@
         <v>2.510615948674913</v>
       </c>
       <c r="D506" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E506">
         <v>2.382011194841591</v>
@@ -27087,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="P506" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -27101,7 +27104,7 @@
         <v>1.864147259392827</v>
       </c>
       <c r="D507" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E507">
         <v>2.507553063414217</v>
@@ -27151,7 +27154,7 @@
         <v>1.934848212718206</v>
       </c>
       <c r="D508" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E508">
         <v>2.507553063414217</v>
@@ -27201,7 +27204,7 @@
         <v>2.501669564187559</v>
       </c>
       <c r="D509" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E509">
         <v>2.253673461558189</v>
@@ -27251,7 +27254,7 @@
         <v>2.523673461558189</v>
       </c>
       <c r="D510" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E510">
         <v>2.253673461558189</v>
@@ -27301,7 +27304,7 @@
         <v>1.945845237918145</v>
       </c>
       <c r="D511" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E511">
         <v>2.594782675902186</v>
@@ -27351,7 +27354,7 @@
         <v>2.022277901603086</v>
       </c>
       <c r="D512" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E512">
         <v>2.594782675902186</v>
@@ -27401,7 +27404,7 @@
         <v>2.021120427020333</v>
       </c>
       <c r="D513" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E513">
         <v>2.594782675902186</v>
@@ -27451,7 +27454,7 @@
         <v>2.589962952437578</v>
       </c>
       <c r="D514" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E514">
         <v>2.297723818642469</v>
@@ -27501,7 +27504,7 @@
         <v>2.608350012217243</v>
       </c>
       <c r="D515" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E515">
         <v>2.297723818642469</v>
@@ -27551,7 +27554,7 @@
         <v>2.266279845688224</v>
       </c>
       <c r="D516" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E516">
         <v>2.483614796034592</v>
@@ -27601,7 +27604,7 @@
         <v>2.307068900485583</v>
       </c>
       <c r="D517" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E517">
         <v>2.574468278923365</v>
@@ -27651,7 +27654,7 @@
         <v>2.687922383374356</v>
       </c>
       <c r="D518" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E518">
         <v>2.779436064877657</v>
@@ -27701,7 +27704,7 @@
         <v>2.719073751524686</v>
       </c>
       <c r="D519" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E519">
         <v>2.779436064877657</v>
@@ -27751,7 +27754,7 @@
         <v>2.661312059733931</v>
       </c>
       <c r="D520" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E520">
         <v>2.452036686439876</v>
@@ -27801,7 +27804,7 @@
         <v>2.178065180993424</v>
       </c>
       <c r="D521" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E521">
         <v>2.397102519605832</v>
@@ -27851,7 +27854,7 @@
         <v>2.220092336347903</v>
       </c>
       <c r="D522" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E522">
         <v>2.493217929862364</v>
@@ -27901,7 +27904,7 @@
         <v>2.606207746604436</v>
       </c>
       <c r="D523" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E523">
         <v>2.696173802411337</v>
@@ -27951,7 +27954,7 @@
         <v>2.637204352185126</v>
       </c>
       <c r="D524" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E524">
         <v>2.696173802411337</v>
@@ -28001,7 +28004,7 @@
         <v>2.575109308444452</v>
       </c>
       <c r="D525" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E525">
         <v>2.363048208896876</v>
@@ -28051,7 +28054,7 @@
         <v>2.12088326409676</v>
       </c>
       <c r="D526" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E526">
         <v>2.286141940050999</v>
@@ -28101,7 +28104,7 @@
         <v>2.130930583414695</v>
       </c>
       <c r="D527" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E527">
         <v>2.389006294323388</v>
@@ -28151,7 +28154,7 @@
         <v>2.501400616005236</v>
       </c>
       <c r="D528" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E528">
         <v>2.589381688278063</v>
@@ -28201,7 +28204,7 @@
         <v>2.532198723232519</v>
       </c>
       <c r="D529" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E529">
         <v>2.589381688278063</v>
@@ -28251,7 +28254,7 @@
         <v>2.464545725596433</v>
       </c>
       <c r="D530" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E530">
         <v>2.248911655687521</v>
@@ -28301,7 +28304,7 @@
         <v>2.140747071531653</v>
       </c>
       <c r="D531" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E531">
         <v>1.952012635521896</v>
@@ -28337,7 +28340,7 @@
         <v>1</v>
       </c>
       <c r="P531" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="532" spans="1:16">
@@ -28351,7 +28354,7 @@
         <v>2.120862122803493</v>
       </c>
       <c r="D532" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E532">
         <v>1.952012635521896</v>
@@ -28387,7 +28390,7 @@
         <v>1</v>
       </c>
       <c r="P532" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -28437,7 +28440,7 @@
         <v>1</v>
       </c>
       <c r="P533" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -28451,7 +28454,7 @@
         <v>2.111322327890854</v>
       </c>
       <c r="D534" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E534">
         <v>1.971667481706374</v>
@@ -28487,7 +28490,7 @@
         <v>1</v>
       </c>
       <c r="P534" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -28501,7 +28504,7 @@
         <v>2.100113320360155</v>
       </c>
       <c r="D535" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E535">
         <v>1.93087160618927</v>
@@ -28601,7 +28604,7 @@
         <v>2.090416634691801</v>
       </c>
       <c r="D537" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E537">
         <v>1.950644120440534</v>
@@ -28651,7 +28654,7 @@
         <v>1.821174920520916</v>
       </c>
       <c r="D538" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E538">
         <v>1.870719949023447</v>
@@ -28701,7 +28704,7 @@
         <v>3.677672300021996</v>
       </c>
       <c r="D539" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E539">
         <v>3.541994244446075</v>
@@ -29301,7 +29304,7 @@
         <v>3.978801242489368</v>
       </c>
       <c r="D551" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E551">
         <v>4.001638601163368</v>
@@ -29351,7 +29354,7 @@
         <v>3.972496123834499</v>
       </c>
       <c r="D552" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E552">
         <v>4.001638601163368</v>
@@ -29401,7 +29404,7 @@
         <v>3.880251497171022</v>
       </c>
       <c r="D553" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E553">
         <v>4.001638601163368</v>
@@ -29701,7 +29704,7 @@
         <v>4.022199580117016</v>
       </c>
       <c r="D559" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E559">
         <v>4.091206258231424</v>
@@ -29751,7 +29754,7 @@
         <v>4.065709597288629</v>
       </c>
       <c r="D560" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E560">
         <v>4.091206258231424</v>
@@ -29801,7 +29804,7 @@
         <v>4.074716275403038</v>
       </c>
       <c r="D561" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E561">
         <v>4.091206258231424</v>
@@ -30201,7 +30204,7 @@
         <v>4.048036218160957</v>
       </c>
       <c r="D569" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E569">
         <v>4.122590316821391</v>
@@ -30251,7 +30254,7 @@
         <v>4.091698514142259</v>
       </c>
       <c r="D570" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E570">
         <v>4.122590316821391</v>
@@ -30301,7 +30304,7 @@
         <v>4.100806711463127</v>
       </c>
       <c r="D571" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E571">
         <v>4.122590316821391</v>
@@ -30637,7 +30640,7 @@
         <v>1</v>
       </c>
       <c r="P577" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -30687,7 +30690,7 @@
         <v>1</v>
       </c>
       <c r="P578" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -30737,7 +30740,7 @@
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -30787,7 +30790,7 @@
         <v>1</v>
       </c>
       <c r="P580" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -30837,7 +30840,7 @@
         <v>1</v>
       </c>
       <c r="P581" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -30887,7 +30890,7 @@
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -31001,7 +31004,7 @@
         <v>3.994175842561082</v>
       </c>
       <c r="D585" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E585">
         <v>3.987624320511637</v>
@@ -31051,7 +31054,7 @@
         <v>4.031968972954489</v>
       </c>
       <c r="D586" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E586">
         <v>3.987624320511637</v>
@@ -31101,7 +31104,7 @@
         <v>4.029762103347897</v>
       </c>
       <c r="D587" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E587">
         <v>3.987624320511637</v>
@@ -31251,7 +31254,7 @@
         <v>3.974502457741278</v>
       </c>
       <c r="D590" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E590">
         <v>4.02356250952716</v>
@@ -31301,7 +31304,7 @@
         <v>4.00977951012228</v>
       </c>
       <c r="D591" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E591">
         <v>4.02356250952716</v>
@@ -31601,7 +31604,7 @@
         <v>3.831405330516851</v>
       </c>
       <c r="D597" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E597">
         <v>3.850567996970952</v>
@@ -31651,7 +31654,7 @@
         <v>3.880964530341485</v>
       </c>
       <c r="D598" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E598">
         <v>3.850567996970952</v>
@@ -31837,7 +31840,7 @@
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -31887,7 +31890,7 @@
         <v>1</v>
       </c>
       <c r="P602" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="603" spans="1:16">
@@ -32601,7 +32604,7 @@
         <v>3.560372125976119</v>
       </c>
       <c r="D617" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E617">
         <v>3.5580450644216</v>
@@ -32801,7 +32804,7 @@
         <v>3.537985937044418</v>
       </c>
       <c r="D621" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E621">
         <v>3.543795194274905</v>
@@ -33301,7 +33304,7 @@
         <v>3.513407764343196</v>
       </c>
       <c r="D631" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E631">
         <v>3.432185734163389</v>
@@ -34451,7 +34454,7 @@
         <v>3.300340269867909</v>
       </c>
       <c r="D654" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E654">
         <v>3.32717886940423</v>
@@ -34501,7 +34504,7 @@
         <v>3.355120178326529</v>
       </c>
       <c r="D655" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E655">
         <v>3.32717886940423</v>
@@ -34551,7 +34554,7 @@
         <v>3.319715551327793</v>
       </c>
       <c r="D656" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E656">
         <v>3.32717886940423</v>
@@ -34751,7 +34754,7 @@
         <v>3.177869947980192</v>
       </c>
       <c r="D660" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E660">
         <v>3.00684994632877</v>
@@ -34801,7 +34804,7 @@
         <v>3.163573279753848</v>
       </c>
       <c r="D661" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E661">
         <v>3.00684994632877</v>
@@ -34851,7 +34854,7 @@
         <v>3.116679946053533</v>
       </c>
       <c r="D662" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E662">
         <v>3.00684994632877</v>
@@ -34951,7 +34954,7 @@
         <v>3.087400375663595</v>
       </c>
       <c r="D664" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E664">
         <v>3.241716253711907</v>
@@ -35001,7 +35004,7 @@
         <v>3.081905443957313</v>
       </c>
       <c r="D665" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E665">
         <v>2.925042268347651</v>
@@ -35051,7 +35054,7 @@
         <v>3.034452741518665</v>
       </c>
       <c r="D666" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E666">
         <v>2.925042268347651</v>
@@ -35151,7 +35154,7 @@
         <v>2.989312133043864</v>
       </c>
       <c r="D668" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E668">
         <v>2.907291204027289</v>
@@ -35201,7 +35204,7 @@
         <v>2.476500577738507</v>
       </c>
       <c r="D669" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E669">
         <v>2.193477149265671</v>
@@ -35251,7 +35254,7 @@
         <v>2.451590863540431</v>
       </c>
       <c r="D670" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E670">
         <v>2.193477149265671</v>
@@ -35301,7 +35304,7 @@
         <v>4.277467356934507</v>
       </c>
       <c r="D671" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E671">
         <v>4.250019035921865</v>
@@ -35351,7 +35354,7 @@
         <v>4.312388090974894</v>
       </c>
       <c r="D672" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E672">
         <v>4.250019035921865</v>
@@ -35401,7 +35404,7 @@
         <v>4.328265072623884</v>
       </c>
       <c r="D673" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E673">
         <v>4.250019035921865</v>
@@ -35451,7 +35454,7 @@
         <v>4.111896806998631</v>
       </c>
       <c r="D674" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E674">
         <v>4.346549444666274</v>
@@ -35501,7 +35504,7 @@
         <v>4.117244169330988</v>
       </c>
       <c r="D675" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E675">
         <v>4.346549444666274</v>
@@ -35551,7 +35554,7 @@
         <v>3.834254835686777</v>
       </c>
       <c r="D676" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E676">
         <v>4.016549444666274</v>
@@ -35601,7 +35604,7 @@
         <v>3.867454604316342</v>
       </c>
       <c r="D677" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E677">
         <v>3.899538778310484</v>
@@ -35651,7 +35654,7 @@
         <v>3.847454604316343</v>
       </c>
       <c r="D678" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E678">
         <v>3.899538778310484</v>
@@ -35701,7 +35704,7 @@
         <v>4.09540978178439</v>
       </c>
       <c r="D679" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E679">
         <v>4.330013928201403</v>
@@ -35751,7 +35754,7 @@
         <v>4.100805635367377</v>
       </c>
       <c r="D680" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E680">
         <v>4.330013928201403</v>
@@ -35801,7 +35804,7 @@
         <v>3.816701002958673</v>
       </c>
       <c r="D681" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E681">
         <v>4.000013928201403</v>
@@ -35851,7 +35854,7 @@
         <v>3.851743439112183</v>
       </c>
       <c r="D682" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E682">
         <v>3.891097828525042</v>
@@ -35901,7 +35904,7 @@
         <v>3.831743439112183</v>
       </c>
       <c r="D683" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E683">
         <v>3.891097828525042</v>
@@ -36001,7 +36004,7 @@
         <v>3.072514803912405</v>
       </c>
       <c r="D685" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E685">
         <v>3.774449448295682</v>
@@ -36051,7 +36054,7 @@
         <v>2.371533691899383</v>
       </c>
       <c r="D686" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E686">
         <v>2.931507151748597</v>
@@ -36101,7 +36104,7 @@
         <v>3.00124175024074</v>
       </c>
       <c r="D687" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E687">
         <v>3.689569720741245</v>
@@ -36151,7 +36154,7 @@
         <v>2.318595131284202</v>
       </c>
       <c r="D688" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E688">
         <v>2.868371291570359</v>
@@ -36201,7 +36204,7 @@
         <v>2.936132894431933</v>
       </c>
       <c r="D689" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E689">
         <v>3.612030992459847</v>
@@ -36251,7 +36254,7 @@
         <v>2.879002435988074</v>
       </c>
       <c r="D690" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E690">
         <v>3.543993810131251</v>
@@ -36301,7 +36304,7 @@
         <v>3.039849598930484</v>
       </c>
       <c r="D691" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E691">
         <v>3.542642379679147</v>
@@ -36351,7 +36354,7 @@
         <v>2.977447192513372</v>
       </c>
       <c r="D692" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E692">
         <v>2.899058823529414</v>
@@ -36401,7 +36404,7 @@
         <v>3.042101740294511</v>
       </c>
       <c r="D693" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E693">
         <v>3.545002623828647</v>
@@ -36501,7 +36504,7 @@
         <v>3.050868993661444</v>
       </c>
       <c r="D695" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E695">
         <v>3.554190705357193</v>
@@ -36651,7 +36654,7 @@
         <v>3.089396271713036</v>
       </c>
       <c r="D698" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E698">
         <v>3.594567292755261</v>
@@ -36701,7 +36704,7 @@
         <v>3.027786612060444</v>
       </c>
       <c r="D699" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E699">
         <v>3.145566633714636</v>
@@ -36751,7 +36754,7 @@
         <v>2.996371463540931</v>
       </c>
       <c r="D700" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E700">
         <v>3.145566633714636</v>
@@ -36801,7 +36804,7 @@
         <v>2.416022659343419</v>
       </c>
       <c r="D701" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E701">
         <v>2.867912855598218</v>
@@ -36851,7 +36854,7 @@
         <v>3.105522877654162</v>
       </c>
       <c r="D702" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E702">
         <v>3.611467975781562</v>
@@ -36901,7 +36904,7 @@
         <v>3.044171243696629</v>
       </c>
       <c r="D703" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E703">
         <v>3.05430849837813</v>
@@ -36951,7 +36954,7 @@
         <v>3.083632681399362</v>
       </c>
       <c r="D704" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E704">
         <v>3.05430849837813</v>
@@ -37001,7 +37004,7 @@
         <v>2.442409140573988</v>
       </c>
       <c r="D705" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E705">
         <v>2.897644102055196</v>
@@ -37051,7 +37054,7 @@
         <v>3.140364182095934</v>
       </c>
       <c r="D706" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E706">
         <v>3.647981662836538</v>
@@ -37101,7 +37104,7 @@
         <v>3.079570009009469</v>
       </c>
       <c r="D707" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E707">
         <v>2.916452842425499</v>
@@ -37151,7 +37154,7 @@
         <v>3.115129220614724</v>
       </c>
       <c r="D708" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E708">
         <v>2.916452842425499</v>
@@ -37201,7 +37204,7 @@
         <v>2.506084679240175</v>
       </c>
       <c r="D709" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E709">
         <v>2.946342336667283</v>
@@ -37251,7 +37254,7 @@
         <v>2.485628823792214</v>
       </c>
       <c r="D710" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E710">
         <v>2.946342336667283</v>
@@ -37301,7 +37304,7 @@
         <v>3.197432425781973</v>
       </c>
       <c r="D711" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E711">
         <v>3.707789182219507</v>
@@ -37351,7 +37354,7 @@
         <v>3.137551344594485</v>
       </c>
       <c r="D712" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E712">
         <v>2.906599994094392</v>
@@ -37401,7 +37404,7 @@
         <v>3.166718912906903</v>
       </c>
       <c r="D713" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E713">
         <v>2.906599994094392</v>
@@ -37451,7 +37454,7 @@
         <v>2.548771137606324</v>
       </c>
       <c r="D714" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E714">
         <v>3.017488605753604</v>
@@ -37501,7 +37504,7 @@
         <v>3.280806959867506</v>
       </c>
       <c r="D715" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E715">
         <v>3.795165693941145</v>
@@ -37551,7 +37554,7 @@
         <v>3.222259871225385</v>
       </c>
       <c r="D716" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E716">
         <v>2.962089491720224</v>
@@ -37601,7 +37604,7 @@
         <v>3.242089491720225</v>
       </c>
       <c r="D717" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E717">
         <v>2.962089491720224</v>
@@ -37651,7 +37654,7 @@
         <v>2.653191076884793</v>
       </c>
       <c r="D718" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E718">
         <v>3.092218373582619</v>
@@ -37701,7 +37704,7 @@
         <v>3.368380906542133</v>
       </c>
       <c r="D719" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E719">
         <v>3.886943190056155</v>
@@ -37751,7 +37754,7 @@
         <v>3.311235001046807</v>
       </c>
       <c r="D720" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E720">
         <v>2.886023832922186</v>
@@ -37801,7 +37804,7 @@
         <v>3.321256339514088</v>
       </c>
       <c r="D721" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E721">
         <v>2.886023832922186</v>
@@ -37851,7 +37854,7 @@
         <v>2.738191997996943</v>
       </c>
       <c r="D722" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E722">
         <v>3.189362283425077</v>
@@ -37901,7 +37904,7 @@
         <v>3.482221425888762</v>
       </c>
       <c r="D723" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E723">
         <v>4.006248054331422</v>
@@ -37951,7 +37954,7 @@
         <v>3.426896968702983</v>
       </c>
       <c r="D724" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E724">
         <v>2.985596340510704</v>
@@ -38001,7 +38004,7 @@
         <v>3.424168169003441</v>
       </c>
       <c r="D725" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E725">
         <v>2.985596340510704</v>
@@ -38051,7 +38054,7 @@
         <v>2.804657363903828</v>
       </c>
       <c r="D726" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E726">
         <v>3.265322701604374</v>
@@ -38101,7 +38104,7 @@
         <v>3.571237540942626</v>
       </c>
       <c r="D727" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E727">
         <v>4.099536942907871</v>
@@ -38151,7 +38154,7 @@
         <v>3.517337341597708</v>
       </c>
       <c r="D728" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E728">
         <v>3.063455769144483</v>
@@ -38201,7 +38204,7 @@
         <v>3.504638737012133</v>
       </c>
       <c r="D729" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E729">
         <v>3.063455769144483</v>
@@ -38251,7 +38254,7 @@
         <v>0.5561171847256032</v>
       </c>
       <c r="D730" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E730">
         <v>0.4330335026282048</v>
@@ -38301,7 +38304,7 @@
         <v>0.5838703236021816</v>
       </c>
       <c r="D731" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E731">
         <v>0.4330335026282048</v>
@@ -38451,7 +38454,7 @@
         <v>0.551213907254529</v>
       </c>
       <c r="D734" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E734">
         <v>0.4281448182448422</v>
@@ -38501,7 +38504,7 @@
         <v>0.5788357083417033</v>
       </c>
       <c r="D735" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E735">
         <v>0.4281448182448422</v>
@@ -38651,7 +38654,7 @@
         <v>0.5518269121620083</v>
       </c>
       <c r="D738" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E738">
         <v>0.4287559987329539</v>
@@ -38701,7 +38704,7 @@
         <v>0.5794651330234899</v>
       </c>
       <c r="D739" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E739">
         <v>0.4287559987329539</v>
@@ -38851,7 +38854,7 @@
         <v>0.555190648483161</v>
       </c>
       <c r="D742" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E742">
         <v>0.4321097239341025</v>
@@ -38901,7 +38904,7 @@
         <v>0.5829189694246733</v>
       </c>
       <c r="D743" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E743">
         <v>0.4321097239341025</v>
@@ -39051,7 +39054,7 @@
         <v>0.5690756953603548</v>
       </c>
       <c r="D746" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E746">
         <v>0.4459534462670192</v>
@@ -39101,7 +39104,7 @@
         <v>0.5971759372003635</v>
       </c>
       <c r="D747" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E747">
         <v>0.4459534462670192</v>
@@ -39251,7 +39254,7 @@
         <v>0.5772648724003702</v>
       </c>
       <c r="D750" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E750">
         <v>0.4541182507563208</v>
@@ -39301,7 +39304,7 @@
         <v>0.6055844671968078</v>
       </c>
       <c r="D751" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E751">
         <v>0.4541182507563208</v>
@@ -39451,7 +39454,7 @@
         <v>0.5864399744245681</v>
       </c>
       <c r="D754" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E754">
         <v>0.4632660459292559</v>
@@ -39501,7 +39504,7 @@
         <v>0.6150053308823686</v>
       </c>
       <c r="D755" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E755">
         <v>0.4632660459292559</v>
@@ -39651,7 +39654,7 @@
         <v>0.595932369726385</v>
       </c>
       <c r="D758" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E758">
         <v>0.4727301900545786</v>
@@ -39701,7 +39704,7 @@
         <v>0.6247519867726261</v>
       </c>
       <c r="D759" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E759">
         <v>0.4727301900545786</v>
@@ -39851,7 +39854,7 @@
         <v>0.608430208081792</v>
       </c>
       <c r="D762" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E762">
         <v>0.4851908324625001</v>
@@ -39901,7 +39904,7 @@
         <v>0.637584588655411</v>
       </c>
       <c r="D763" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E763">
         <v>0.4851908324625001</v>
@@ -40051,7 +40054,7 @@
         <v>0.6487552402128216</v>
       </c>
       <c r="D766" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E766">
         <v>0.496037697018247</v>
@@ -40201,7 +40204,7 @@
         <v>0.660243576041168</v>
       </c>
       <c r="D769" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E769">
         <v>0.5071930376051919</v>
@@ -40401,7 +40404,7 @@
         <v>0.6200014950680988</v>
       </c>
       <c r="D773" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E773">
         <v>0.5032178605940176</v>
@@ -40501,7 +40504,7 @@
         <v>0.6162587744088102</v>
       </c>
       <c r="D775" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E775">
         <v>0.5028669571717694</v>
@@ -40551,7 +40554,7 @@
         <v>0.6375579856807025</v>
       </c>
       <c r="D776" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E776">
         <v>0.5206716816708736</v>
@@ -40651,7 +40654,7 @@
         <v>0.6334559216463012</v>
       </c>
       <c r="D778" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E778">
         <v>0.5200127696413874</v>
@@ -40751,7 +40754,7 @@
         <v>0.6569511874884277</v>
       </c>
       <c r="D780" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E780">
         <v>0.5399514729417119</v>
@@ -41687,7 +41690,7 @@
         <v>1</v>
       </c>
       <c r="P798" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="799" spans="1:16">
@@ -41737,7 +41740,7 @@
         <v>1</v>
       </c>
       <c r="P799" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="800" spans="1:16">
@@ -41787,7 +41790,7 @@
         <v>1</v>
       </c>
       <c r="P800" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -41837,7 +41840,7 @@
         <v>1</v>
       </c>
       <c r="P801" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -41887,7 +41890,7 @@
         <v>1</v>
       </c>
       <c r="P802" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -42151,7 +42154,7 @@
         <v>0.270836261272378</v>
       </c>
       <c r="D808" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E808">
         <v>0.09124596707246546</v>
@@ -42251,7 +42254,7 @@
         <v>0.2794126519714268</v>
       </c>
       <c r="D810" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E810">
         <v>0.06592505104991719</v>
@@ -42337,7 +42340,7 @@
         <v>1</v>
       </c>
       <c r="P811" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -42351,7 +42354,7 @@
         <v>0.1298112530385671</v>
       </c>
       <c r="D812" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E812">
         <v>0.07261882114189877</v>
@@ -42387,7 +42390,7 @@
         <v>1</v>
       </c>
       <c r="P812" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -42451,7 +42454,7 @@
         <v>0.1409299212154549</v>
       </c>
       <c r="D814" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E814">
         <v>0.08367689712163706</v>
@@ -42601,7 +42604,7 @@
         <v>0.1597535501777907</v>
       </c>
       <c r="D817" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E817">
         <v>0.1023979449997094</v>
@@ -42751,7 +42754,7 @@
         <v>0.1800760542101028</v>
       </c>
       <c r="D820" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E820">
         <v>0.122609699691246</v>
@@ -42901,7 +42904,7 @@
         <v>0.1921206757259357</v>
       </c>
       <c r="D823" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E823">
         <v>0.1345886829426881</v>
@@ -43051,7 +43054,7 @@
         <v>0.207445501992245</v>
       </c>
       <c r="D826" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E826">
         <v>0.149829995169398</v>
@@ -43201,7 +43204,7 @@
         <v>0.2264355115310135</v>
       </c>
       <c r="D829" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E829">
         <v>0.1687165169177645</v>
@@ -43351,7 +43354,7 @@
         <v>0.247602885402646</v>
       </c>
       <c r="D832" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E832">
         <v>0.189768537253312</v>
@@ -43501,7 +43504,7 @@
         <v>0.2658141232074192</v>
       </c>
       <c r="D835" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E835">
         <v>0.2078805312553342</v>
@@ -43651,7 +43654,7 @@
         <v>0.2841622296762241</v>
       </c>
       <c r="D838" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E838">
         <v>0.2261286480431108</v>
@@ -43801,7 +43804,7 @@
         <v>0.3008602884138671</v>
       </c>
       <c r="D841" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E841">
         <v>0.2427357091854532</v>
@@ -43951,7 +43954,7 @@
         <v>0.3157253050058326</v>
       </c>
       <c r="D844" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E844">
         <v>0.2575197175126123</v>
@@ -44101,7 +44104,7 @@
         <v>0.3256535453070422</v>
       </c>
       <c r="D847" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E847">
         <v>0.2673938529620443</v>
@@ -44201,7 +44204,7 @@
         <v>0.3356173056739165</v>
       </c>
       <c r="D849" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E849">
         <v>0.2773033149073001</v>
@@ -44301,7 +44304,7 @@
         <v>0.3554042853652533</v>
       </c>
       <c r="D851" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E851">
         <v>0.2969824636466409</v>
@@ -44451,7 +44454,7 @@
         <v>0.36895891007521</v>
       </c>
       <c r="D854" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E854">
         <v>0.3104632211919656</v>
@@ -44551,7 +44554,7 @@
         <v>0.3786093045418983</v>
       </c>
       <c r="D856" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E856">
         <v>0.3200610249531142</v>
@@ -44637,7 +44640,7 @@
         <v>1</v>
       </c>
       <c r="P857" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -44651,7 +44654,7 @@
         <v>0.37775626876864</v>
       </c>
       <c r="D858" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E858">
         <v>0.3192126378761673</v>
@@ -44687,7 +44690,7 @@
         <v>1</v>
       </c>
       <c r="P858" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -44751,7 +44754,7 @@
         <v>0.3789042474925317</v>
       </c>
       <c r="D860" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E860">
         <v>0.3203543605852142</v>
@@ -44851,7 +44854,7 @@
         <v>0.3814658379638036</v>
       </c>
       <c r="D862" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E862">
         <v>0.3229019914353897</v>
@@ -44901,7 +44904,7 @@
         <v>0.3806182450080593</v>
       </c>
       <c r="D863" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E863">
         <v>0.3220590175148264</v>
@@ -44945,43 +44948,43 @@
         <v>0</v>
       </c>
       <c r="B864" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C864">
-        <v>0.3721749196184598</v>
+        <v>0.7774502676647046</v>
       </c>
       <c r="D864" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="E864">
-        <v>0.3136617047976493</v>
+        <v>0.5525824158727959</v>
       </c>
       <c r="F864">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G864">
-        <v>0.01192782508038154</v>
+        <v>0.0112625497323353</v>
       </c>
       <c r="H864">
-        <v>0.01180633829520235</v>
+        <v>0.0116674175841272</v>
       </c>
       <c r="I864">
-        <v>-0.05851321482081051</v>
+        <v>0.2248678517919087</v>
       </c>
       <c r="J864">
         <v>1.574339258959548</v>
       </c>
       <c r="K864">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="L864">
-        <v>6.15</v>
+        <v>6.02</v>
       </c>
       <c r="M864">
-        <v>3.65</v>
+        <v>3.53</v>
       </c>
       <c r="N864">
-        <v>6.06</v>
+        <v>6.11</v>
       </c>
       <c r="O864">
         <v>1</v>
@@ -44992,96 +44995,96 @@
     </row>
     <row r="865" spans="1:16">
       <c r="A865" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B865" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C865">
-        <v>0.7629506935493247</v>
+        <v>0.3721749196184598</v>
       </c>
       <c r="D865" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="E865">
-        <v>0.5372119964652011</v>
+        <v>0.3136617047976493</v>
       </c>
       <c r="F865">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G865">
-        <v>0.01127704930645067</v>
+        <v>0.01192782508038154</v>
       </c>
       <c r="H865">
-        <v>0.0116827880035348</v>
+        <v>0.01180633829520235</v>
       </c>
       <c r="I865">
-        <v>0.2257386970841235</v>
+        <v>-0.05851321482081051</v>
       </c>
       <c r="J865">
-        <v>1.578693485420623</v>
+        <v>1.574339258959548</v>
       </c>
       <c r="K865">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="L865">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="M865">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="N865">
-        <v>6.11</v>
+        <v>6.06</v>
       </c>
       <c r="O865">
         <v>1</v>
       </c>
       <c r="P865" t="s">
-        <v>466</v>
+        <v>197</v>
       </c>
     </row>
     <row r="866" spans="1:16">
       <c r="A866" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B866" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C866">
-        <v>0.3561949085063132</v>
+        <v>0.7629506935493247</v>
       </c>
       <c r="D866" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="E866">
-        <v>0.2977687782147251</v>
+        <v>0.5372119964652011</v>
       </c>
       <c r="F866">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G866">
-        <v>0.01194380509149369</v>
+        <v>0.01127704930645067</v>
       </c>
       <c r="H866">
-        <v>0.01182223122178527</v>
+        <v>0.0116827880035348</v>
       </c>
       <c r="I866">
-        <v>-0.05842613029158805</v>
+        <v>0.2257386970841235</v>
       </c>
       <c r="J866">
         <v>1.578693485420623</v>
       </c>
       <c r="K866">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
       <c r="L866">
-        <v>6.15</v>
+        <v>6.02</v>
       </c>
       <c r="M866">
-        <v>3.65</v>
+        <v>3.53</v>
       </c>
       <c r="N866">
-        <v>6.06</v>
+        <v>6.11</v>
       </c>
       <c r="O866">
         <v>1</v>
@@ -45092,46 +45095,46 @@
     </row>
     <row r="867" spans="1:16">
       <c r="A867" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B867" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C867">
-        <v>0.7576723026745622</v>
+        <v>0.3561949085063132</v>
       </c>
       <c r="D867" t="s">
         <v>334</v>
       </c>
       <c r="E867">
-        <v>0.5250813450072629</v>
+        <v>0.2977687782147251</v>
       </c>
       <c r="F867">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G867">
-        <v>0.01108232769732544</v>
+        <v>0.01194380509149369</v>
       </c>
       <c r="H867">
-        <v>0.01135491865499274</v>
+        <v>0.01182223122178527</v>
       </c>
       <c r="I867">
-        <v>0.2325909576672993</v>
+        <v>-0.05842613029158805</v>
       </c>
       <c r="J867">
         <v>1.578693485420623</v>
       </c>
       <c r="K867">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L867">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M867">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="N867">
-        <v>5.94</v>
+        <v>6.06</v>
       </c>
       <c r="O867">
         <v>1</v>
@@ -45142,96 +45145,96 @@
     </row>
     <row r="868" spans="1:16">
       <c r="A868" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B868" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C868">
-        <v>0.3203941118255811</v>
+        <v>0.7576723026745622</v>
       </c>
       <c r="D868" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E868">
-        <v>0.2374337494452821</v>
+        <v>0.5250813450072629</v>
       </c>
       <c r="F868">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G868">
-        <v>0.01197960588817442</v>
+        <v>0.01108232769732544</v>
       </c>
       <c r="H868">
-        <v>0.01218256625055472</v>
+        <v>0.01135491865499274</v>
       </c>
       <c r="I868">
-        <v>-0.08296036238029902</v>
+        <v>0.2325909576672993</v>
       </c>
       <c r="J868">
-        <v>1.588448470892212</v>
+        <v>1.578693485420623</v>
       </c>
       <c r="K868">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="L868">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="M868">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N868">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O868">
         <v>1</v>
       </c>
       <c r="P868" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="869" spans="1:16">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B869" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C869">
-        <v>0.7257735001824654</v>
+        <v>0.3203941118255811</v>
       </c>
       <c r="D869" t="s">
         <v>334</v>
       </c>
       <c r="E869">
-        <v>0.4916217448397111</v>
+        <v>0.2621630812434246</v>
       </c>
       <c r="F869">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G869">
-        <v>0.01111422649981753</v>
+        <v>0.01197960588817442</v>
       </c>
       <c r="H869">
-        <v>0.01138837825516029</v>
+        <v>0.01185783691875658</v>
       </c>
       <c r="I869">
-        <v>0.2341517553427543</v>
+        <v>-0.05823103058215651</v>
       </c>
       <c r="J869">
         <v>1.588448470892212</v>
       </c>
       <c r="K869">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L869">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M869">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="N869">
-        <v>5.94</v>
+        <v>6.06</v>
       </c>
       <c r="O869">
         <v>1</v>
@@ -45242,96 +45245,96 @@
     </row>
     <row r="870" spans="1:16">
       <c r="A870" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B870" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C870">
-        <v>0.3042852051995242</v>
+        <v>0.7257735001824654</v>
       </c>
       <c r="D870" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E870">
-        <v>0.2209298015123187</v>
+        <v>0.4916217448397111</v>
       </c>
       <c r="F870">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G870">
-        <v>0.01199571479480048</v>
+        <v>0.01111422649981753</v>
       </c>
       <c r="H870">
-        <v>0.01219907019848768</v>
+        <v>0.01138837825516029</v>
       </c>
       <c r="I870">
-        <v>-0.08335540368720551</v>
+        <v>0.2341517553427543</v>
       </c>
       <c r="J870">
-        <v>1.592837818746724</v>
+        <v>1.588448470892212</v>
       </c>
       <c r="K870">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="L870">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="M870">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N870">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O870">
         <v>1</v>
       </c>
       <c r="P870" t="s">
-        <v>199</v>
+        <v>467</v>
       </c>
     </row>
     <row r="871" spans="1:16">
       <c r="A871" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B871" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C871">
-        <v>0.7114203326982134</v>
+        <v>0.3042852051995242</v>
       </c>
       <c r="D871" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E871">
-        <v>0.4765662816987373</v>
+        <v>0.2209298015123187</v>
       </c>
       <c r="F871">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G871">
-        <v>0.01112857966730179</v>
+        <v>0.01199571479480048</v>
       </c>
       <c r="H871">
-        <v>0.01140343371830126</v>
+        <v>0.01219907019848768</v>
       </c>
       <c r="I871">
-        <v>0.2348540509994761</v>
+        <v>-0.08335540368720551</v>
       </c>
       <c r="J871">
         <v>1.592837818746724</v>
       </c>
       <c r="K871">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L871">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M871">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="N871">
-        <v>5.94</v>
+        <v>6.21</v>
       </c>
       <c r="O871">
         <v>1</v>
@@ -45342,96 +45345,96 @@
     </row>
     <row r="872" spans="1:16">
       <c r="A872" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B872" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C872">
-        <v>0.2827161083084606</v>
+        <v>0.7114203326982134</v>
       </c>
       <c r="D872" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E872">
-        <v>0.1988317621906841</v>
+        <v>0.4765662816987373</v>
       </c>
       <c r="F872">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G872">
-        <v>0.01201728389169154</v>
+        <v>0.01112857966730179</v>
       </c>
       <c r="H872">
-        <v>0.01222116823780932</v>
+        <v>0.01140343371830126</v>
       </c>
       <c r="I872">
-        <v>-0.08388434611777651</v>
+        <v>0.2348540509994761</v>
       </c>
       <c r="J872">
-        <v>1.59871495686418</v>
+        <v>1.592837818746724</v>
       </c>
       <c r="K872">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="L872">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="M872">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N872">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O872">
         <v>1</v>
       </c>
       <c r="P872" t="s">
-        <v>468</v>
+        <v>199</v>
       </c>
     </row>
     <row r="873" spans="1:16">
       <c r="A873" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B873" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C873">
-        <v>0.6922020910541313</v>
+        <v>0.2827161083084606</v>
       </c>
       <c r="D873" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E873">
-        <v>0.4564076979558633</v>
+        <v>0.1988317621906841</v>
       </c>
       <c r="F873">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G873">
-        <v>0.01114779790894587</v>
+        <v>0.01201728389169154</v>
       </c>
       <c r="H873">
-        <v>0.01142359230204414</v>
+        <v>0.01222116823780932</v>
       </c>
       <c r="I873">
-        <v>0.235794393098268</v>
+        <v>-0.08388434611777651</v>
       </c>
       <c r="J873">
         <v>1.59871495686418</v>
       </c>
       <c r="K873">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L873">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M873">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="N873">
-        <v>5.94</v>
+        <v>6.21</v>
       </c>
       <c r="O873">
         <v>1</v>
@@ -45442,96 +45445,96 @@
     </row>
     <row r="874" spans="1:16">
       <c r="A874" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B874" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C874">
-        <v>0.2629830094488543</v>
+        <v>0.6922020910541313</v>
       </c>
       <c r="D874" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E874">
-        <v>0.1786147453753921</v>
+        <v>0.4564076979558633</v>
       </c>
       <c r="F874">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G874">
-        <v>0.01203701699055115</v>
+        <v>0.01114779790894587</v>
       </c>
       <c r="H874">
-        <v>0.01224138525462461</v>
+        <v>0.01142359230204414</v>
       </c>
       <c r="I874">
-        <v>-0.08436826407346221</v>
+        <v>0.235794393098268</v>
       </c>
       <c r="J874">
-        <v>1.60409182303846</v>
+        <v>1.59871495686418</v>
       </c>
       <c r="K874">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="L874">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="M874">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N874">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O874">
         <v>1</v>
       </c>
       <c r="P874" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="875" spans="1:16">
       <c r="A875" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B875" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C875">
-        <v>0.6746197386642372</v>
+        <v>0.2629830094488543</v>
       </c>
       <c r="D875" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E875">
-        <v>0.4379650469780838</v>
+        <v>0.1786147453753921</v>
       </c>
       <c r="F875">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G875">
-        <v>0.01116538026133576</v>
+        <v>0.01203701699055115</v>
       </c>
       <c r="H875">
-        <v>0.01144203495302192</v>
+        <v>0.01224138525462461</v>
       </c>
       <c r="I875">
-        <v>0.2366546916861534</v>
+        <v>-0.08436826407346221</v>
       </c>
       <c r="J875">
         <v>1.60409182303846</v>
       </c>
       <c r="K875">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L875">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M875">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="N875">
-        <v>5.94</v>
+        <v>6.21</v>
       </c>
       <c r="O875">
         <v>1</v>
@@ -45542,96 +45545,96 @@
     </row>
     <row r="876" spans="1:16">
       <c r="A876" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B876" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C876">
-        <v>0.2531682602441148</v>
+        <v>0.6746197386642372</v>
       </c>
       <c r="D876" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E876">
-        <v>0.1685593074980574</v>
+        <v>0.4379650469780838</v>
       </c>
       <c r="F876">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G876">
-        <v>0.01204683173975589</v>
+        <v>0.01116538026133576</v>
       </c>
       <c r="H876">
-        <v>0.01225144069250194</v>
+        <v>0.01144203495302192</v>
       </c>
       <c r="I876">
-        <v>-0.0846089527460574</v>
+        <v>0.2366546916861534</v>
       </c>
       <c r="J876">
-        <v>1.606766141622857</v>
+        <v>1.60409182303846</v>
       </c>
       <c r="K876">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="L876">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="M876">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N876">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O876">
         <v>1</v>
       </c>
       <c r="P876" t="s">
-        <v>200</v>
+        <v>469</v>
       </c>
     </row>
     <row r="877" spans="1:16">
       <c r="A877" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B877" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C877">
-        <v>0.6658747168932573</v>
+        <v>0.2531682602441148</v>
       </c>
       <c r="D877" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E877">
-        <v>0.4287921342335999</v>
+        <v>0.1685593074980574</v>
       </c>
       <c r="F877">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G877">
-        <v>0.01117412528310674</v>
+        <v>0.01204683173975589</v>
       </c>
       <c r="H877">
-        <v>0.0114512078657664</v>
+        <v>0.01225144069250194</v>
       </c>
       <c r="I877">
-        <v>0.2370825826596574</v>
+        <v>-0.0846089527460574</v>
       </c>
       <c r="J877">
         <v>1.606766141622857</v>
       </c>
       <c r="K877">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L877">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M877">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="N877">
-        <v>5.94</v>
+        <v>6.21</v>
       </c>
       <c r="O877">
         <v>1</v>
@@ -45642,96 +45645,96 @@
     </row>
     <row r="878" spans="1:16">
       <c r="A878" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B878" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C878">
-        <v>0.264044594240807</v>
+        <v>0.6658747168932573</v>
       </c>
       <c r="D878" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E878">
-        <v>0.1797023635818622</v>
+        <v>0.4287921342335999</v>
       </c>
       <c r="F878">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G878">
-        <v>0.01203595540575919</v>
+        <v>0.01117412528310674</v>
       </c>
       <c r="H878">
-        <v>0.01224029763641814</v>
+        <v>0.0114512078657664</v>
       </c>
       <c r="I878">
-        <v>-0.08434223065894475</v>
+        <v>0.2370825826596574</v>
       </c>
       <c r="J878">
-        <v>1.603802562877164</v>
+        <v>1.606766141622857</v>
       </c>
       <c r="K878">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="L878">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="M878">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N878">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O878">
         <v>1</v>
       </c>
       <c r="P878" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="879" spans="1:16">
       <c r="A879" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B879" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C879">
-        <v>0.6755656193916719</v>
+        <v>0.264044594240807</v>
       </c>
       <c r="D879" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E879">
-        <v>0.4389572093313259</v>
+        <v>0.1797023635818622</v>
       </c>
       <c r="F879">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G879">
-        <v>0.01116443438060833</v>
+        <v>0.01203595540575919</v>
       </c>
       <c r="H879">
-        <v>0.01144104279066867</v>
+        <v>0.01224029763641814</v>
       </c>
       <c r="I879">
-        <v>0.2366084100603461</v>
+        <v>-0.08434223065894475</v>
       </c>
       <c r="J879">
         <v>1.603802562877164</v>
       </c>
       <c r="K879">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L879">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M879">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="N879">
-        <v>5.94</v>
+        <v>6.21</v>
       </c>
       <c r="O879">
         <v>1</v>
@@ -45742,90 +45745,90 @@
     </row>
     <row r="880" spans="1:16">
       <c r="A880" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B880" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C880">
-        <v>0.2246564252284724</v>
+        <v>0.6087670811874686</v>
       </c>
       <c r="D880" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E880">
-        <v>0.1393482721686796</v>
+        <v>0.4389572093313259</v>
       </c>
       <c r="F880">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G880">
-        <v>0.01207534357477153</v>
+        <v>0.01177123291881253</v>
       </c>
       <c r="H880">
-        <v>0.01228065172783132</v>
+        <v>0.01144104279066867</v>
       </c>
       <c r="I880">
-        <v>-0.08530815305979278</v>
+        <v>0.1698098718561427</v>
       </c>
       <c r="J880">
-        <v>1.614535033997692</v>
+        <v>1.603802562877164</v>
       </c>
       <c r="K880">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="L880">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="M880">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N880">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O880">
         <v>1</v>
       </c>
       <c r="P880" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="881" spans="1:16">
       <c r="A881" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B881" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C881">
-        <v>0.5714180816880337</v>
+        <v>0.6755656193916719</v>
       </c>
       <c r="D881" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="E881">
-        <v>0.4021448333879176</v>
+        <v>0.4389572093313259</v>
       </c>
       <c r="F881">
         <v>-1</v>
       </c>
       <c r="G881">
-        <v>0.01180858191831197</v>
+        <v>0.01116443438060833</v>
       </c>
       <c r="H881">
-        <v>0.01147785516661208</v>
+        <v>0.01144104279066867</v>
       </c>
       <c r="I881">
-        <v>0.169273248300116</v>
+        <v>0.2366084100603461</v>
       </c>
       <c r="J881">
-        <v>1.614535033997692</v>
+        <v>1.603802562877164</v>
       </c>
       <c r="K881">
-        <v>3.48</v>
+        <v>3.27</v>
       </c>
       <c r="L881">
-        <v>6.19</v>
+        <v>5.92</v>
       </c>
       <c r="M881">
         <v>3.43</v>
@@ -45837,51 +45840,51 @@
         <v>1</v>
       </c>
       <c r="P881" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="882" spans="1:16">
       <c r="A882" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B882" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C882">
-        <v>0.6404704388275482</v>
+        <v>0.2246564252284724</v>
       </c>
       <c r="D882" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E882">
-        <v>0.4021448333879176</v>
+        <v>0.1393482721686796</v>
       </c>
       <c r="F882">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G882">
-        <v>0.01119952956117245</v>
+        <v>0.01207534357477153</v>
       </c>
       <c r="H882">
-        <v>0.01147785516661208</v>
+        <v>0.01228065172783132</v>
       </c>
       <c r="I882">
-        <v>0.2383256054396306</v>
+        <v>-0.08530815305979278</v>
       </c>
       <c r="J882">
         <v>1.614535033997692</v>
       </c>
       <c r="K882">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L882">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M882">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="N882">
-        <v>5.94</v>
+        <v>6.21</v>
       </c>
       <c r="O882">
         <v>1</v>
@@ -45892,84 +45895,84 @@
     </row>
     <row r="883" spans="1:16">
       <c r="A883" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B883" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C883">
-        <v>0.1598063964288423</v>
+        <v>0.5714180816880337</v>
       </c>
       <c r="D883" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="E883">
-        <v>0.07290791568731514</v>
+        <v>0.4021448333879176</v>
       </c>
       <c r="F883">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G883">
-        <v>0.01214019360357116</v>
+        <v>0.01180858191831197</v>
       </c>
       <c r="H883">
-        <v>0.01234709208431269</v>
+        <v>0.01147785516661208</v>
       </c>
       <c r="I883">
-        <v>-0.08689848074152717</v>
+        <v>0.169273248300116</v>
       </c>
       <c r="J883">
-        <v>1.632205341572523</v>
+        <v>1.614535033997692</v>
       </c>
       <c r="K883">
-        <v>3.67</v>
+        <v>3.48</v>
       </c>
       <c r="L883">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="M883">
-        <v>3.76</v>
+        <v>3.43</v>
       </c>
       <c r="N883">
-        <v>6.21</v>
+        <v>5.94</v>
       </c>
       <c r="O883">
         <v>1</v>
       </c>
       <c r="P883" t="s">
-        <v>470</v>
+        <v>193</v>
       </c>
     </row>
     <row r="884" spans="1:16">
       <c r="A884" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B884" t="s">
         <v>201</v>
       </c>
       <c r="C884">
-        <v>0.5826885330578513</v>
+        <v>0.6404704388275482</v>
       </c>
       <c r="D884" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="E884">
-        <v>0.341535678406248</v>
+        <v>0.4021448333879176</v>
       </c>
       <c r="F884">
         <v>-1</v>
       </c>
       <c r="G884">
-        <v>0.01125731146694215</v>
+        <v>0.01119952956117245</v>
       </c>
       <c r="H884">
-        <v>0.01153846432159375</v>
+        <v>0.01147785516661208</v>
       </c>
       <c r="I884">
-        <v>0.2411528546516033</v>
+        <v>0.2383256054396306</v>
       </c>
       <c r="J884">
-        <v>1.632205341572523</v>
+        <v>1.614535033997692</v>
       </c>
       <c r="K884">
         <v>3.27</v>
@@ -45987,7 +45990,7 @@
         <v>1</v>
       </c>
       <c r="P884" t="s">
-        <v>470</v>
+        <v>193</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -45998,28 +46001,28 @@
         <v>196</v>
       </c>
       <c r="C885">
-        <v>0.011804494898219</v>
+        <v>0.1598063964288423</v>
       </c>
       <c r="D885" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E885">
-        <v>0.3661350768784093</v>
+        <v>0.07290791568731514</v>
       </c>
       <c r="F885">
         <v>1</v>
       </c>
       <c r="G885">
-        <v>0.01228819550510178</v>
+        <v>0.01214019360357116</v>
       </c>
       <c r="H885">
-        <v>0.01207386492312159</v>
+        <v>0.01234709208431269</v>
       </c>
       <c r="I885">
-        <v>0.3543305819801903</v>
+        <v>-0.08689848074152717</v>
       </c>
       <c r="J885">
-        <v>1.672532835177597</v>
+        <v>1.632205341572523</v>
       </c>
       <c r="K885">
         <v>3.67</v>
@@ -46028,16 +46031,16 @@
         <v>6.15</v>
       </c>
       <c r="M885">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="N885">
-        <v>6.22</v>
+        <v>6.21</v>
       </c>
       <c r="O885">
         <v>1</v>
       </c>
       <c r="P885" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -46048,28 +46051,28 @@
         <v>201</v>
       </c>
       <c r="C886">
-        <v>0.4508176289692569</v>
+        <v>0.5826885330578513</v>
       </c>
       <c r="D886" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="E886">
-        <v>0.2032123753408417</v>
+        <v>0.341535678406248</v>
       </c>
       <c r="F886">
         <v>-1</v>
       </c>
       <c r="G886">
-        <v>0.01138918237103074</v>
+        <v>0.01125731146694215</v>
       </c>
       <c r="H886">
-        <v>0.01167678762465916</v>
+        <v>0.01153846432159375</v>
       </c>
       <c r="I886">
-        <v>0.2476052536284152</v>
+        <v>0.2411528546516033</v>
       </c>
       <c r="J886">
-        <v>1.672532835177597</v>
+        <v>1.632205341572523</v>
       </c>
       <c r="K886">
         <v>3.27</v>
@@ -46087,7 +46090,7 @@
         <v>1</v>
       </c>
       <c r="P886" t="s">
-        <v>195</v>
+        <v>470</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -46095,81 +46098,81 @@
         <v>0</v>
       </c>
       <c r="B887" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C887">
-        <v>0.2968499181634146</v>
+        <v>0.011804494898219</v>
       </c>
       <c r="D887" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E887">
-        <v>0.04171107623868942</v>
+        <v>-0.07872346026776533</v>
       </c>
       <c r="F887">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G887">
-        <v>0.01154315008183659</v>
+        <v>0.01228819550510178</v>
       </c>
       <c r="H887">
-        <v>0.01183828892376131</v>
+        <v>0.01249872346026777</v>
       </c>
       <c r="I887">
-        <v>0.2551388419247251</v>
+        <v>-0.09052795516598433</v>
       </c>
       <c r="J887">
-        <v>1.719617762029537</v>
+        <v>1.672532835177597</v>
       </c>
       <c r="K887">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="L887">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="M887">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="N887">
-        <v>5.94</v>
+        <v>6.21</v>
       </c>
       <c r="O887">
         <v>1</v>
       </c>
       <c r="P887" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="888" spans="1:16">
       <c r="A888" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B888" t="s">
         <v>201</v>
       </c>
       <c r="C888">
-        <v>0.3224506058857468</v>
+        <v>0.4508176289692569</v>
       </c>
       <c r="D888" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="E888">
-        <v>0.06856439699942296</v>
+        <v>0.2032123753408417</v>
       </c>
       <c r="F888">
         <v>-1</v>
       </c>
       <c r="G888">
-        <v>0.01151754939411425</v>
+        <v>0.01138918237103074</v>
       </c>
       <c r="H888">
-        <v>0.01181143560300058</v>
+        <v>0.01167678762465916</v>
       </c>
       <c r="I888">
-        <v>0.2538862088863238</v>
+        <v>0.2476052536284152</v>
       </c>
       <c r="J888">
-        <v>1.711788805539527</v>
+        <v>1.672532835177597</v>
       </c>
       <c r="K888">
         <v>3.27</v>
@@ -46187,7 +46190,7 @@
         <v>1</v>
       </c>
       <c r="P888" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -46198,28 +46201,28 @@
         <v>201</v>
       </c>
       <c r="C889">
-        <v>0.4717536877718773</v>
+        <v>0.2968499181634146</v>
       </c>
       <c r="D889" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="E889">
-        <v>0.2251728284579633</v>
+        <v>0.04171107623868942</v>
       </c>
       <c r="F889">
         <v>-1</v>
       </c>
       <c r="G889">
-        <v>0.01136824631222812</v>
+        <v>0.01154315008183659</v>
       </c>
       <c r="H889">
-        <v>0.01165482717154204</v>
+        <v>0.01183828892376131</v>
       </c>
       <c r="I889">
-        <v>0.246580859313914</v>
+        <v>0.2551388419247251</v>
       </c>
       <c r="J889">
-        <v>1.666130370711964</v>
+        <v>1.719617762029537</v>
       </c>
       <c r="K889">
         <v>3.27</v>
@@ -46237,7 +46240,7 @@
         <v>1</v>
       </c>
       <c r="P889" t="s">
-        <v>333</v>
+        <v>196</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -46248,28 +46251,28 @@
         <v>201</v>
       </c>
       <c r="C890">
-        <v>0.5136993922788848</v>
+        <v>0.3224506058857468</v>
       </c>
       <c r="D890" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="E890">
-        <v>0.2691709221763228</v>
+        <v>0.06856439699942296</v>
       </c>
       <c r="F890">
         <v>-1</v>
       </c>
       <c r="G890">
-        <v>0.01132630060772112</v>
+        <v>0.01151754939411425</v>
       </c>
       <c r="H890">
-        <v>0.01161082907782368</v>
+        <v>0.01181143560300058</v>
       </c>
       <c r="I890">
-        <v>0.2445284701025621</v>
+        <v>0.2538862088863238</v>
       </c>
       <c r="J890">
-        <v>1.653302938141014</v>
+        <v>1.711788805539527</v>
       </c>
       <c r="K890">
         <v>3.27</v>
@@ -46287,7 +46290,207 @@
         <v>1</v>
       </c>
       <c r="P890" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="891" spans="1:16">
+      <c r="A891" s="1">
+        <v>0</v>
+      </c>
+      <c r="B891" t="s">
+        <v>201</v>
+      </c>
+      <c r="C891">
+        <v>0.4717536877718773</v>
+      </c>
+      <c r="D891" t="s">
+        <v>203</v>
+      </c>
+      <c r="E891">
+        <v>0.2251728284579633</v>
+      </c>
+      <c r="F891">
+        <v>-1</v>
+      </c>
+      <c r="G891">
+        <v>0.01136824631222812</v>
+      </c>
+      <c r="H891">
+        <v>0.01165482717154204</v>
+      </c>
+      <c r="I891">
+        <v>0.246580859313914</v>
+      </c>
+      <c r="J891">
+        <v>1.666130370711964</v>
+      </c>
+      <c r="K891">
+        <v>3.27</v>
+      </c>
+      <c r="L891">
+        <v>5.92</v>
+      </c>
+      <c r="M891">
+        <v>3.43</v>
+      </c>
+      <c r="N891">
+        <v>5.94</v>
+      </c>
+      <c r="O891">
+        <v>1</v>
+      </c>
+      <c r="P891" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="892" spans="1:16">
+      <c r="A892" s="1">
+        <v>0</v>
+      </c>
+      <c r="B892" t="s">
+        <v>201</v>
+      </c>
+      <c r="C892">
+        <v>0.5136993922788848</v>
+      </c>
+      <c r="D892" t="s">
+        <v>203</v>
+      </c>
+      <c r="E892">
+        <v>0.2691709221763228</v>
+      </c>
+      <c r="F892">
+        <v>-1</v>
+      </c>
+      <c r="G892">
+        <v>0.01132630060772112</v>
+      </c>
+      <c r="H892">
+        <v>0.01161082907782368</v>
+      </c>
+      <c r="I892">
+        <v>0.2445284701025621</v>
+      </c>
+      <c r="J892">
+        <v>1.653302938141014</v>
+      </c>
+      <c r="K892">
+        <v>3.27</v>
+      </c>
+      <c r="L892">
+        <v>5.92</v>
+      </c>
+      <c r="M892">
+        <v>3.43</v>
+      </c>
+      <c r="N892">
+        <v>5.94</v>
+      </c>
+      <c r="O892">
+        <v>1</v>
+      </c>
+      <c r="P892" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="893" spans="1:16">
+      <c r="A893" s="1">
+        <v>0</v>
+      </c>
+      <c r="B893" t="s">
+        <v>203</v>
+      </c>
+      <c r="C893">
+        <v>1.135282743014287</v>
+      </c>
+      <c r="D893" t="s">
+        <v>336</v>
+      </c>
+      <c r="E893">
+        <v>1.147306509110372</v>
+      </c>
+      <c r="F893">
+        <v>1</v>
+      </c>
+      <c r="G893">
+        <v>0.01074471725698571</v>
+      </c>
+      <c r="H893">
+        <v>0.01067269349088963</v>
+      </c>
+      <c r="I893">
+        <v>0.01202376609608535</v>
+      </c>
+      <c r="J893">
+        <v>1.400792203202832</v>
+      </c>
+      <c r="K893">
+        <v>3.43</v>
+      </c>
+      <c r="L893">
+        <v>5.94</v>
+      </c>
+      <c r="M893">
+        <v>3.4</v>
+      </c>
+      <c r="N893">
+        <v>5.91</v>
+      </c>
+      <c r="O893">
+        <v>1</v>
+      </c>
+      <c r="P893" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="894" spans="1:16">
+      <c r="A894" s="1">
+        <v>0</v>
+      </c>
+      <c r="B894" t="s">
+        <v>203</v>
+      </c>
+      <c r="C894">
+        <v>1.05728794369645</v>
+      </c>
+      <c r="D894" t="s">
+        <v>336</v>
+      </c>
+      <c r="E894">
+        <v>1.069993880048959</v>
+      </c>
+      <c r="F894">
+        <v>1</v>
+      </c>
+      <c r="G894">
+        <v>0.01082271205630355</v>
+      </c>
+      <c r="H894">
+        <v>0.01075000611995104</v>
+      </c>
+      <c r="I894">
+        <v>0.01270593635250883</v>
+      </c>
+      <c r="J894">
+        <v>1.423531211750306</v>
+      </c>
+      <c r="K894">
+        <v>3.43</v>
+      </c>
+      <c r="L894">
+        <v>5.94</v>
+      </c>
+      <c r="M894">
+        <v>3.4</v>
+      </c>
+      <c r="N894">
+        <v>5.91</v>
+      </c>
+      <c r="O894">
+        <v>1</v>
+      </c>
+      <c r="P894" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
